--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590325.0994702233</v>
+        <v>583871.1587195222</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19778271.22999822</v>
+        <v>19778271.2299982</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11998323.51445616</v>
+        <v>11998323.51445617</v>
       </c>
     </row>
     <row r="9">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>163.4826509942704</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>232.8762580056797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>51.62874955811071</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
@@ -1466,7 +1466,7 @@
         <v>117.8285443189354</v>
       </c>
       <c r="H12" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>13.40740721635471</v>
@@ -1499,25 +1499,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>114.4370262690156</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>171.0596284195045</v>
       </c>
       <c r="U12" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>15.31877244072591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.778128927084</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>83.80963609611729</v>
       </c>
       <c r="S13" t="n">
-        <v>185.7293014154023</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>123.023150297639</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U13" t="n">
-        <v>264.3917552289735</v>
+        <v>217.512949371456</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>31.39381398907861</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0410961664994</v>
       </c>
       <c r="V14" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>232.8762580056799</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66.74133866405502</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>86.86787224865093</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>117.8285443189354</v>
       </c>
       <c r="H15" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>171.0596284195045</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S16" t="n">
-        <v>185.7293014154023</v>
+        <v>183.78850963574</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U16" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="X16" t="n">
-        <v>48.21916009186682</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="F17" t="n">
-        <v>100.7935995741753</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="G17" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>264.3917552289735</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>62.68905142009524</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>232.8762580056796</v>
       </c>
     </row>
     <row r="18">
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81.137971639399</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>11.55250908484646</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>171.0596284195045</v>
@@ -1988,7 +1988,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X18" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.2412762795719</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.127778259562</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>185.7293014154024</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.94104781804401</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>244.2269170681536</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U20" t="n">
-        <v>253.0410961664994</v>
+        <v>163.4826509942702</v>
       </c>
       <c r="V20" t="n">
-        <v>264.3917552289733</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>264.3917552289733</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.78098378507045</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>114.4370262690156</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2228,7 +2228,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>33.46444936884183</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7074297037366</v>
+        <v>4.278594004473106</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.80963609611729</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>185.7293014154023</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.229862556131707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>232.8762580056796</v>
+        <v>232.8762580056797</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>264.3917552289734</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>264.3917552289734</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.3917552289734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>11.55250908484639</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>54.07121803136411</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>114.4370262690156</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>171.0596284195045</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>29.38919571271173</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.7074297037366</v>
       </c>
       <c r="H25" t="n">
-        <v>79.79919282440397</v>
+        <v>146.2412762795719</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.7293014154024</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>264.3917552289734</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>264.3917552289734</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>232.8762580056796</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>20.04315492660459</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>96.56028522558717</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>171.0596284195045</v>
       </c>
       <c r="U27" t="n">
         <v>207.894704294071</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>81.137971639399</v>
       </c>
     </row>
     <row r="28">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.208942512422208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.208942512421934</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>163.4826509942702</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>232.8762580056795</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>149.1476881355087</v>
+        <v>11.55250908484595</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13.40740721635473</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>72.24570459043943</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>171.0596284195045</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>93.03113415874137</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U31" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>264.3917552289732</v>
+        <v>47.78940866192333</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>20.04315492660448</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T32" t="n">
         <v>212.8331030790751</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.0410961664994</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>174.8333100567442</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>13.40740721635473</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,22 +3161,22 @@
         <v>114.4370262690156</v>
       </c>
       <c r="T33" t="n">
-        <v>171.0596284195045</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>156.3546581053861</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W33" t="n">
-        <v>227.816073408046</v>
+        <v>26.93875495014356</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="34">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.7074297037366</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.7293014154024</v>
       </c>
       <c r="T34" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>215.9209918864306</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>136.4426449448444</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,20 +3265,20 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>163.4826509942702</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>264.3917552289733</v>
       </c>
-      <c r="C35" t="n">
-        <v>232.8762580056796</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
         <v>264.3917552289733</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>264.3917552289733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5.091062749102697</v>
       </c>
       <c r="G36" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>13.40740721635473</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>26.24787943692768</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>58.79625753851932</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7074297037366</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.2412762795719</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.80963609611729</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>264.3917552289733</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>127.2047717062575</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="F38" t="n">
-        <v>264.3917552289732</v>
+        <v>244.2269170681535</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0410961664994</v>
       </c>
       <c r="V38" t="n">
-        <v>232.8762580056795</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
-        <v>81.37605415156388</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3638,16 +3638,16 @@
         <v>171.0596284195045</v>
       </c>
       <c r="U39" t="n">
-        <v>207.894704294071</v>
+        <v>112.8230652200065</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.56357339864521</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7074297037366</v>
       </c>
       <c r="H40" t="n">
-        <v>100.9710225841342</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>105.778128927084</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>185.7293014154024</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="F41" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>232.8762580056797</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0410961664994</v>
       </c>
       <c r="V41" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>244.2269170681535</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>128.44665984875</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>118.050578617405</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.4602874254</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.40740721635473</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>114.4370262690156</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>40.46902901951</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>105.778128927084</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>221.2365535118225</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>264.3917552289732</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>31.39381398907849</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="D44" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>212.8331030790751</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>174.833310056744</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>70.17843825359972</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>171.0596284195045</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>207.894704294071</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>28.81929130968467</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.778128927084</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.80963609611729</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>210.529795817937</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.141424248056051</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.3384774758133</v>
+        <v>555.276098456648</v>
       </c>
       <c r="C11" t="n">
-        <v>555.2760984566481</v>
+        <v>555.276098456648</v>
       </c>
       <c r="D11" t="n">
+        <v>555.276098456648</v>
+      </c>
+      <c r="E11" t="n">
         <v>288.213719437483</v>
       </c>
-      <c r="E11" t="n">
-        <v>21.15134041831788</v>
-      </c>
       <c r="F11" t="n">
-        <v>21.15134041831788</v>
+        <v>288.213719437483</v>
       </c>
       <c r="G11" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H11" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I11" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J11" t="n">
         <v>66.50789150215644</v>
@@ -5053,13 +5053,13 @@
         <v>503.3345814532959</v>
       </c>
       <c r="N11" t="n">
-        <v>695.9892987179365</v>
+        <v>695.9892987179362</v>
       </c>
       <c r="O11" t="n">
-        <v>869.2397653754934</v>
+        <v>869.2397653754933</v>
       </c>
       <c r="P11" t="n">
-        <v>994.6793798181892</v>
+        <v>994.6793798181891</v>
       </c>
       <c r="Q11" t="n">
         <v>1057.567020915894</v>
@@ -5068,25 +5068,25 @@
         <v>1057.567020915894</v>
       </c>
       <c r="S11" t="n">
-        <v>1057.567020915894</v>
+        <v>935.3930217630576</v>
       </c>
       <c r="T11" t="n">
-        <v>1057.567020915894</v>
+        <v>720.4100893599515</v>
       </c>
       <c r="U11" t="n">
-        <v>1057.567020915894</v>
+        <v>555.276098456648</v>
       </c>
       <c r="V11" t="n">
-        <v>1057.567020915894</v>
+        <v>555.276098456648</v>
       </c>
       <c r="W11" t="n">
-        <v>1057.567020915894</v>
+        <v>555.276098456648</v>
       </c>
       <c r="X11" t="n">
-        <v>1057.567020915894</v>
+        <v>555.276098456648</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.3384774758133</v>
+        <v>555.276098456648</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>559.1919108324685</v>
+        <v>278.1447137425499</v>
       </c>
       <c r="C12" t="n">
-        <v>408.5376803925607</v>
+        <v>278.1447137425499</v>
       </c>
       <c r="D12" t="n">
-        <v>408.5376803925607</v>
+        <v>278.1447137425499</v>
       </c>
       <c r="E12" t="n">
-        <v>356.387428313661</v>
+        <v>278.1447137425499</v>
       </c>
       <c r="F12" t="n">
-        <v>231.9556221967928</v>
+        <v>153.7129076256817</v>
       </c>
       <c r="G12" t="n">
-        <v>112.9368905615045</v>
+        <v>34.69417599039334</v>
       </c>
       <c r="H12" t="n">
-        <v>34.69417599039335</v>
+        <v>34.69417599039334</v>
       </c>
       <c r="I12" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J12" t="n">
-        <v>35.93379099832524</v>
+        <v>201.3583756725859</v>
       </c>
       <c r="K12" t="n">
-        <v>237.5133043307212</v>
+        <v>277.4245742991061</v>
       </c>
       <c r="L12" t="n">
-        <v>369.903347286881</v>
+        <v>409.8146172552659</v>
       </c>
       <c r="M12" t="n">
-        <v>536.9782472937812</v>
+        <v>576.8895172621661</v>
       </c>
       <c r="N12" t="n">
-        <v>717.840741952219</v>
+        <v>757.7520119206039</v>
       </c>
       <c r="O12" t="n">
-        <v>868.8517233291318</v>
+        <v>908.7629932975167</v>
       </c>
       <c r="P12" t="n">
-        <v>977.4848561892642</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q12" t="n">
-        <v>1017.655750947509</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="R12" t="n">
         <v>1057.567020915894</v>
       </c>
       <c r="S12" t="n">
-        <v>941.9740650886054</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="T12" t="n">
-        <v>769.1865616345605</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="U12" t="n">
-        <v>559.1919108324685</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="V12" t="n">
-        <v>559.1919108324685</v>
+        <v>662.2395158329158</v>
       </c>
       <c r="W12" t="n">
-        <v>559.1919108324685</v>
+        <v>646.766008317031</v>
       </c>
       <c r="X12" t="n">
-        <v>559.1919108324685</v>
+        <v>457.4589306670426</v>
       </c>
       <c r="Y12" t="n">
-        <v>559.1919108324685</v>
+        <v>278.1447137425499</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I13" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J13" t="n">
-        <v>51.85740528213434</v>
+        <v>51.85740528213432</v>
       </c>
       <c r="K13" t="n">
-        <v>68.22427597096164</v>
+        <v>230.1766529787056</v>
       </c>
       <c r="L13" t="n">
-        <v>329.9721136476454</v>
+        <v>491.9244906553893</v>
       </c>
       <c r="M13" t="n">
-        <v>444.1835277973133</v>
+        <v>753.672328332073</v>
       </c>
       <c r="N13" t="n">
-        <v>705.9313654739971</v>
+        <v>802.4127623762804</v>
       </c>
       <c r="O13" t="n">
-        <v>967.6792031506808</v>
+        <v>834.2289342875056</v>
       </c>
       <c r="P13" t="n">
-        <v>982.5131533968638</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="Q13" t="n">
         <v>1057.567020915894</v>
       </c>
       <c r="R13" t="n">
-        <v>972.9108228390077</v>
+        <v>972.9108228390074</v>
       </c>
       <c r="S13" t="n">
-        <v>785.3054678739547</v>
+        <v>972.9108228390074</v>
       </c>
       <c r="T13" t="n">
-        <v>661.0396594925012</v>
+        <v>740.9210576846682</v>
       </c>
       <c r="U13" t="n">
-        <v>393.9772804733361</v>
+        <v>521.2110078145106</v>
       </c>
       <c r="V13" t="n">
-        <v>127.9979352941603</v>
+        <v>255.2316626353348</v>
       </c>
       <c r="W13" t="n">
-        <v>127.9979352941603</v>
+        <v>255.2316626353348</v>
       </c>
       <c r="X13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.15134041831788</v>
+        <v>288.213719437483</v>
       </c>
       <c r="C14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I14" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J14" t="n">
-        <v>66.50789150215644</v>
+        <v>66.50789150215653</v>
       </c>
       <c r="K14" t="n">
-        <v>167.4656409637685</v>
+        <v>167.4656409637686</v>
       </c>
       <c r="L14" t="n">
         <v>316.6988016734354</v>
       </c>
       <c r="M14" t="n">
-        <v>503.3345814532959</v>
+        <v>503.3345814532958</v>
       </c>
       <c r="N14" t="n">
-        <v>695.9892987179365</v>
+        <v>695.9892987179362</v>
       </c>
       <c r="O14" t="n">
-        <v>869.2397653754934</v>
+        <v>869.2397653754932</v>
       </c>
       <c r="P14" t="n">
-        <v>994.6793798181892</v>
+        <v>994.6793798181891</v>
       </c>
       <c r="Q14" t="n">
         <v>1057.567020915894</v>
@@ -5305,25 +5305,25 @@
         <v>1057.567020915894</v>
       </c>
       <c r="S14" t="n">
-        <v>1057.567020915894</v>
+        <v>1025.856097694602</v>
       </c>
       <c r="T14" t="n">
-        <v>1057.567020915894</v>
+        <v>810.8731652914959</v>
       </c>
       <c r="U14" t="n">
-        <v>1057.567020915894</v>
+        <v>555.276098456648</v>
       </c>
       <c r="V14" t="n">
-        <v>790.5046418967288</v>
+        <v>555.276098456648</v>
       </c>
       <c r="W14" t="n">
-        <v>523.4422628775637</v>
+        <v>555.276098456648</v>
       </c>
       <c r="X14" t="n">
+        <v>555.276098456648</v>
+      </c>
+      <c r="Y14" t="n">
         <v>288.213719437483</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21.15134041831788</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>760.0342814491252</v>
+        <v>364.3618884464063</v>
       </c>
       <c r="C15" t="n">
-        <v>609.3800510092174</v>
+        <v>276.6165629427185</v>
       </c>
       <c r="D15" t="n">
-        <v>479.2910836306978</v>
+        <v>276.6165629427185</v>
       </c>
       <c r="E15" t="n">
-        <v>342.8445927415855</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="F15" t="n">
-        <v>218.4127866247173</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="G15" t="n">
-        <v>99.39405498942898</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H15" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I15" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J15" t="n">
-        <v>35.93379099832524</v>
+        <v>35.93379099832523</v>
       </c>
       <c r="K15" t="n">
         <v>111.9999896248454</v>
@@ -5369,16 +5369,16 @@
         <v>411.4649325879054</v>
       </c>
       <c r="N15" t="n">
-        <v>592.3274272463432</v>
+        <v>647.015155620833</v>
       </c>
       <c r="O15" t="n">
-        <v>743.338408623256</v>
+        <v>908.7629932975167</v>
       </c>
       <c r="P15" t="n">
-        <v>851.9715414833884</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q15" t="n">
-        <v>1017.655750947509</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="R15" t="n">
         <v>1057.567020915894</v>
@@ -5387,22 +5387,22 @@
         <v>1057.567020915894</v>
       </c>
       <c r="T15" t="n">
-        <v>1057.567020915894</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="U15" t="n">
-        <v>1057.567020915894</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="V15" t="n">
-        <v>1057.567020915894</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="W15" t="n">
-        <v>827.4497750491807</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="X15" t="n">
-        <v>827.4497750491807</v>
+        <v>695.4724398118603</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.4497750491807</v>
+        <v>516.1582228873676</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K16" t="n">
         <v>202.3732838498266</v>
@@ -5451,37 +5451,37 @@
         <v>774.6093932474014</v>
       </c>
       <c r="O16" t="n">
-        <v>834.2289342875058</v>
+        <v>967.6792031506806</v>
       </c>
       <c r="P16" t="n">
-        <v>1057.567020915894</v>
+        <v>982.5131533968636</v>
       </c>
       <c r="Q16" t="n">
         <v>1057.567020915894</v>
       </c>
       <c r="R16" t="n">
-        <v>1057.567020915894</v>
+        <v>972.9108228390074</v>
       </c>
       <c r="S16" t="n">
-        <v>869.9616659508409</v>
+        <v>787.2658636109873</v>
       </c>
       <c r="T16" t="n">
-        <v>869.9616659508409</v>
+        <v>555.276098456648</v>
       </c>
       <c r="U16" t="n">
-        <v>602.8992869316758</v>
+        <v>288.213719437483</v>
       </c>
       <c r="V16" t="n">
-        <v>336.9199417525</v>
+        <v>288.213719437483</v>
       </c>
       <c r="W16" t="n">
-        <v>69.85756273333487</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="X16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.4100893599517</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4100893599517</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="D17" t="n">
-        <v>720.4100893599517</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="E17" t="n">
-        <v>720.4100893599517</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="F17" t="n">
-        <v>618.5983726183605</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G17" t="n">
-        <v>351.5359935991954</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H17" t="n">
-        <v>84.47361458003024</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I17" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J17" t="n">
-        <v>66.50789150215701</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K17" t="n">
-        <v>167.4656409637691</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L17" t="n">
-        <v>316.698801673436</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M17" t="n">
-        <v>503.3345814532964</v>
+        <v>503.3345814532956</v>
       </c>
       <c r="N17" t="n">
-        <v>695.9892987179368</v>
+        <v>695.9892987179361</v>
       </c>
       <c r="O17" t="n">
-        <v>869.2397653754937</v>
+        <v>869.2397653754931</v>
       </c>
       <c r="P17" t="n">
-        <v>994.6793798181893</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q17" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R17" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S17" t="n">
-        <v>935.3930217630578</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T17" t="n">
-        <v>720.4100893599517</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U17" t="n">
-        <v>720.4100893599517</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="V17" t="n">
-        <v>720.4100893599517</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="W17" t="n">
-        <v>720.4100893599517</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="X17" t="n">
-        <v>720.4100893599517</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.4100893599517</v>
+        <v>822.3384774758127</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.15134041831788</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="C18" t="n">
-        <v>21.15134041831788</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="D18" t="n">
-        <v>21.15134041831788</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="E18" t="n">
-        <v>21.15134041831788</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="F18" t="n">
-        <v>21.15134041831788</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="G18" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H18" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I18" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J18" t="n">
-        <v>201.3583756725864</v>
+        <v>35.93379099832519</v>
       </c>
       <c r="K18" t="n">
-        <v>277.4245742991066</v>
+        <v>111.9999896248453</v>
       </c>
       <c r="L18" t="n">
-        <v>409.8146172552663</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M18" t="n">
-        <v>576.8895172621665</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N18" t="n">
-        <v>757.7520119206042</v>
+        <v>592.3274272463429</v>
       </c>
       <c r="O18" t="n">
-        <v>908.7629932975169</v>
+        <v>743.3384086232556</v>
       </c>
       <c r="P18" t="n">
-        <v>1017.396126157649</v>
+        <v>851.971541483388</v>
       </c>
       <c r="Q18" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R18" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S18" t="n">
-        <v>1045.897819820089</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T18" t="n">
-        <v>873.1103163660443</v>
+        <v>884.7795174618483</v>
       </c>
       <c r="U18" t="n">
-        <v>663.1156655639523</v>
+        <v>674.7848666597563</v>
       </c>
       <c r="V18" t="n">
-        <v>440.5756639350194</v>
+        <v>452.2448650308233</v>
       </c>
       <c r="W18" t="n">
-        <v>210.4584180683062</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="X18" t="n">
-        <v>21.15134041831788</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="Y18" t="n">
-        <v>21.15134041831788</v>
+        <v>222.1276191641102</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.1957360938014</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1957360938014</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1957360938014</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1957360938014</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F19" t="n">
-        <v>168.8698013067744</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G19" t="n">
-        <v>168.8698013067744</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H19" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I19" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J19" t="n">
-        <v>21.15134041831788</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K19" t="n">
-        <v>202.3732838498266</v>
+        <v>202.3732838498265</v>
       </c>
       <c r="L19" t="n">
         <v>242.7560119216059</v>
       </c>
       <c r="M19" t="n">
-        <v>504.5038495982897</v>
+        <v>504.5038495982894</v>
       </c>
       <c r="N19" t="n">
-        <v>572.4810966108221</v>
+        <v>572.4810966108216</v>
       </c>
       <c r="O19" t="n">
-        <v>834.2289342875058</v>
+        <v>834.2289342875051</v>
       </c>
       <c r="P19" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="Q19" t="n">
-        <v>1057.567020915894</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R19" t="n">
-        <v>1002.892497421387</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S19" t="n">
-        <v>815.2871424563339</v>
+        <v>869.9616659508403</v>
       </c>
       <c r="T19" t="n">
-        <v>815.2871424563339</v>
+        <v>637.971900796501</v>
       </c>
       <c r="U19" t="n">
-        <v>815.2871424563339</v>
+        <v>370.9095217773361</v>
       </c>
       <c r="V19" t="n">
-        <v>549.3077972771581</v>
+        <v>104.9301765981603</v>
       </c>
       <c r="W19" t="n">
-        <v>549.3077972771581</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="X19" t="n">
-        <v>549.3077972771581</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="Y19" t="n">
-        <v>326.1957360938014</v>
+        <v>21.15134041831787</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.15134041831787</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="C20" t="n">
-        <v>21.15134041831787</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="D20" t="n">
-        <v>21.15134041831787</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="E20" t="n">
-        <v>21.15134041831787</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="F20" t="n">
-        <v>21.15134041831787</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="G20" t="n">
         <v>21.15134041831787</v>
@@ -5752,19 +5752,19 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J20" t="n">
-        <v>66.50789150215657</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K20" t="n">
-        <v>167.4656409637686</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L20" t="n">
-        <v>316.6988016734355</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M20" t="n">
         <v>503.3345814532956</v>
       </c>
       <c r="N20" t="n">
-        <v>695.9892987179362</v>
+        <v>695.9892987179361</v>
       </c>
       <c r="O20" t="n">
         <v>869.2397653754931</v>
@@ -5779,25 +5779,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S20" t="n">
-        <v>1057.567020915893</v>
+        <v>935.3930217630572</v>
       </c>
       <c r="T20" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="U20" t="n">
-        <v>801.9699540810453</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="V20" t="n">
-        <v>534.9075750618804</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="W20" t="n">
-        <v>534.9075750618804</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="X20" t="n">
-        <v>267.8451960427154</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.8451960427154</v>
+        <v>555.2760984566478</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>218.4127866247173</v>
+        <v>171.8055708582256</v>
       </c>
       <c r="C21" t="n">
-        <v>218.4127866247173</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D21" t="n">
-        <v>218.4127866247173</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E21" t="n">
-        <v>218.4127866247173</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F21" t="n">
-        <v>218.4127866247173</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G21" t="n">
-        <v>99.39405498942898</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H21" t="n">
         <v>21.15134041831787</v>
@@ -5831,52 +5831,52 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J21" t="n">
-        <v>161.4471057042004</v>
+        <v>35.93379099832519</v>
       </c>
       <c r="K21" t="n">
-        <v>237.5133043307206</v>
+        <v>111.9999896248453</v>
       </c>
       <c r="L21" t="n">
-        <v>369.9033472868803</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M21" t="n">
-        <v>536.9782472937806</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N21" t="n">
-        <v>717.8407419522183</v>
+        <v>592.3274272463429</v>
       </c>
       <c r="O21" t="n">
-        <v>868.8517233291311</v>
+        <v>755.648288480965</v>
       </c>
       <c r="P21" t="n">
-        <v>977.4848561892635</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q21" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R21" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="S21" t="n">
-        <v>941.9740650886047</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T21" t="n">
-        <v>941.9740650886047</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U21" t="n">
-        <v>941.9740650886047</v>
+        <v>847.5723701138013</v>
       </c>
       <c r="V21" t="n">
-        <v>719.4340634596717</v>
+        <v>625.0323684848684</v>
       </c>
       <c r="W21" t="n">
-        <v>489.3168175929586</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="X21" t="n">
-        <v>300.0097399429703</v>
+        <v>205.6080449681669</v>
       </c>
       <c r="Y21" t="n">
-        <v>300.0097399429703</v>
+        <v>171.8055708582256</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.0636352643422</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="C22" t="n">
-        <v>345.8585173303314</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="D22" t="n">
-        <v>345.8585173303314</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="E22" t="n">
-        <v>345.8585173303314</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="F22" t="n">
-        <v>188.5325825433044</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="G22" t="n">
         <v>21.15134041831787</v>
@@ -5913,19 +5913,19 @@
         <v>51.85740528213431</v>
       </c>
       <c r="K22" t="n">
-        <v>217.2970162553024</v>
+        <v>233.079348713643</v>
       </c>
       <c r="L22" t="n">
-        <v>479.0448539319859</v>
+        <v>494.8271863903266</v>
       </c>
       <c r="M22" t="n">
-        <v>523.7406625666142</v>
+        <v>756.5750240670102</v>
       </c>
       <c r="N22" t="n">
-        <v>572.4810966108216</v>
+        <v>1010.916898758485</v>
       </c>
       <c r="O22" t="n">
-        <v>834.2289342875051</v>
+        <v>1042.73307066971</v>
       </c>
       <c r="P22" t="n">
         <v>1057.567020915893</v>
@@ -5934,28 +5934,28 @@
         <v>1057.567020915893</v>
       </c>
       <c r="R22" t="n">
-        <v>972.910822839007</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S22" t="n">
-        <v>785.3054678739541</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T22" t="n">
-        <v>785.3054678739541</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="U22" t="n">
-        <v>785.3054678739541</v>
+        <v>558.514876742389</v>
       </c>
       <c r="V22" t="n">
-        <v>519.3261226947783</v>
+        <v>292.5355315632132</v>
       </c>
       <c r="W22" t="n">
-        <v>519.3261226947783</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="X22" t="n">
-        <v>519.3261226947783</v>
+        <v>25.47315254404828</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.0636352643422</v>
+        <v>25.47315254404828</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.15134041831787</v>
+        <v>822.3384774758131</v>
       </c>
       <c r="C23" t="n">
-        <v>21.15134041831787</v>
+        <v>822.3384774758131</v>
       </c>
       <c r="D23" t="n">
-        <v>21.15134041831787</v>
+        <v>822.3384774758131</v>
       </c>
       <c r="E23" t="n">
-        <v>21.15134041831787</v>
+        <v>555.276098456648</v>
       </c>
       <c r="F23" t="n">
-        <v>21.15134041831787</v>
+        <v>288.213719437483</v>
       </c>
       <c r="G23" t="n">
         <v>21.15134041831787</v>
@@ -5989,52 +5989,52 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J23" t="n">
-        <v>66.50789150215655</v>
+        <v>66.50789150215678</v>
       </c>
       <c r="K23" t="n">
-        <v>167.4656409637685</v>
+        <v>167.4656409637688</v>
       </c>
       <c r="L23" t="n">
-        <v>316.6988016734353</v>
+        <v>316.6988016734356</v>
       </c>
       <c r="M23" t="n">
-        <v>503.3345814532957</v>
+        <v>503.3345814532963</v>
       </c>
       <c r="N23" t="n">
-        <v>695.989298717936</v>
+        <v>695.9892987179367</v>
       </c>
       <c r="O23" t="n">
-        <v>869.2397653754929</v>
+        <v>869.2397653754936</v>
       </c>
       <c r="P23" t="n">
-        <v>994.6793798181889</v>
+        <v>994.6793798181891</v>
       </c>
       <c r="Q23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="R23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="S23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="T23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="U23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="V23" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="W23" t="n">
-        <v>790.5046418967283</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="X23" t="n">
-        <v>523.4422628775633</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="Y23" t="n">
-        <v>256.3798838583983</v>
+        <v>1057.567020915894</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>617.3902271935987</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C24" t="n">
-        <v>466.7359967536909</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D24" t="n">
-        <v>336.6470293751712</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E24" t="n">
-        <v>200.2005384860589</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F24" t="n">
-        <v>75.76873236919072</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G24" t="n">
         <v>21.15134041831787</v>
@@ -6074,46 +6074,46 @@
         <v>111.9999896248453</v>
       </c>
       <c r="L24" t="n">
-        <v>244.390032581005</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M24" t="n">
-        <v>411.4649325879052</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N24" t="n">
-        <v>592.3274272463428</v>
+        <v>592.3274272463431</v>
       </c>
       <c r="O24" t="n">
-        <v>854.0752649230265</v>
+        <v>743.3384086232559</v>
       </c>
       <c r="P24" t="n">
-        <v>977.4848561892637</v>
+        <v>851.9715414833883</v>
       </c>
       <c r="Q24" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="R24" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="S24" t="n">
-        <v>941.9740650886049</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="T24" t="n">
-        <v>769.18656163456</v>
+        <v>884.7795174618487</v>
       </c>
       <c r="U24" t="n">
-        <v>769.18656163456</v>
+        <v>674.7848666597567</v>
       </c>
       <c r="V24" t="n">
-        <v>769.18656163456</v>
+        <v>452.2448650308238</v>
       </c>
       <c r="W24" t="n">
-        <v>769.18656163456</v>
+        <v>222.1276191641107</v>
       </c>
       <c r="X24" t="n">
-        <v>769.18656163456</v>
+        <v>32.82054151412231</v>
       </c>
       <c r="Y24" t="n">
-        <v>769.18656163456</v>
+        <v>32.82054151412231</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.7565856954936</v>
+        <v>834.454959732537</v>
       </c>
       <c r="C25" t="n">
-        <v>101.7565856954936</v>
+        <v>804.7689034570706</v>
       </c>
       <c r="D25" t="n">
-        <v>101.7565856954936</v>
+        <v>649.1357903595854</v>
       </c>
       <c r="E25" t="n">
-        <v>101.7565856954936</v>
+        <v>493.5769782187879</v>
       </c>
       <c r="F25" t="n">
-        <v>101.7565856954936</v>
+        <v>336.2510434317609</v>
       </c>
       <c r="G25" t="n">
-        <v>101.7565856954936</v>
+        <v>168.8698013067744</v>
       </c>
       <c r="H25" t="n">
         <v>21.15134041831787</v>
@@ -6147,52 +6147,52 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J25" t="n">
-        <v>51.8574052821343</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K25" t="n">
-        <v>233.079348713643</v>
+        <v>202.3732838498266</v>
       </c>
       <c r="L25" t="n">
-        <v>494.8271863903266</v>
+        <v>464.1211215265103</v>
       </c>
       <c r="M25" t="n">
-        <v>753.6723283320728</v>
+        <v>674.115193562772</v>
       </c>
       <c r="N25" t="n">
-        <v>802.4127623762802</v>
+        <v>935.8630312394556</v>
       </c>
       <c r="O25" t="n">
-        <v>834.2289342875054</v>
+        <v>967.6792031506808</v>
       </c>
       <c r="P25" t="n">
-        <v>1057.567020915893</v>
+        <v>982.5131533968637</v>
       </c>
       <c r="Q25" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="R25" t="n">
-        <v>1057.567020915893</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="S25" t="n">
-        <v>869.9616659508405</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="T25" t="n">
-        <v>869.9616659508405</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="U25" t="n">
-        <v>602.8992869316755</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="V25" t="n">
-        <v>602.8992869316755</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="W25" t="n">
-        <v>335.8369079125105</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="X25" t="n">
-        <v>101.7565856954936</v>
+        <v>1057.567020915894</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.7565856954936</v>
+        <v>834.454959732537</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>288.2137194374827</v>
+        <v>842.584088512787</v>
       </c>
       <c r="C26" t="n">
-        <v>21.15134041831785</v>
+        <v>842.584088512787</v>
       </c>
       <c r="D26" t="n">
-        <v>21.15134041831785</v>
+        <v>842.584088512787</v>
       </c>
       <c r="E26" t="n">
-        <v>21.15134041831785</v>
+        <v>575.5217094936221</v>
       </c>
       <c r="F26" t="n">
-        <v>21.15134041831785</v>
+        <v>308.4593304744571</v>
       </c>
       <c r="G26" t="n">
-        <v>21.15134041831785</v>
+        <v>41.3969514552922</v>
       </c>
       <c r="H26" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I26" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J26" t="n">
-        <v>66.50789150215647</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K26" t="n">
         <v>167.4656409637684</v>
@@ -6238,13 +6238,13 @@
         <v>503.3345814532956</v>
       </c>
       <c r="N26" t="n">
-        <v>695.9892987179358</v>
+        <v>695.989298717936</v>
       </c>
       <c r="O26" t="n">
-        <v>869.2397653754925</v>
+        <v>869.2397653754929</v>
       </c>
       <c r="P26" t="n">
-        <v>994.6793798181882</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q26" t="n">
         <v>1057.567020915893</v>
@@ -6256,22 +6256,22 @@
         <v>1057.567020915893</v>
       </c>
       <c r="T26" t="n">
-        <v>1057.567020915893</v>
+        <v>842.584088512787</v>
       </c>
       <c r="U26" t="n">
-        <v>1057.567020915893</v>
+        <v>842.584088512787</v>
       </c>
       <c r="V26" t="n">
-        <v>1057.567020915893</v>
+        <v>842.584088512787</v>
       </c>
       <c r="W26" t="n">
-        <v>1057.567020915893</v>
+        <v>842.584088512787</v>
       </c>
       <c r="X26" t="n">
-        <v>790.5046418967279</v>
+        <v>842.584088512787</v>
       </c>
       <c r="Y26" t="n">
-        <v>523.4422628775631</v>
+        <v>842.584088512787</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>145.583146535186</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="C27" t="n">
-        <v>145.583146535186</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="D27" t="n">
-        <v>145.583146535186</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="E27" t="n">
-        <v>145.583146535186</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="F27" t="n">
-        <v>21.15134041831785</v>
+        <v>140.1700720536062</v>
       </c>
       <c r="G27" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H27" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I27" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J27" t="n">
-        <v>201.3583756725854</v>
+        <v>201.3583756725857</v>
       </c>
       <c r="K27" t="n">
-        <v>277.4245742991055</v>
+        <v>277.4245742991059</v>
       </c>
       <c r="L27" t="n">
-        <v>409.8146172552653</v>
+        <v>409.8146172552656</v>
       </c>
       <c r="M27" t="n">
-        <v>576.8895172621654</v>
+        <v>576.8895172621658</v>
       </c>
       <c r="N27" t="n">
-        <v>757.7520119206031</v>
+        <v>757.7520119206035</v>
       </c>
       <c r="O27" t="n">
-        <v>908.7629932975158</v>
+        <v>908.7629932975162</v>
       </c>
       <c r="P27" t="n">
-        <v>1017.396126157648</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q27" t="n">
         <v>1057.567020915893</v>
@@ -6332,25 +6332,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S27" t="n">
-        <v>960.0313792738855</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T27" t="n">
-        <v>960.0313792738855</v>
+        <v>884.7795174618483</v>
       </c>
       <c r="U27" t="n">
-        <v>750.0367284717935</v>
+        <v>674.7848666597563</v>
       </c>
       <c r="V27" t="n">
-        <v>527.4967268428605</v>
+        <v>452.2448650308233</v>
       </c>
       <c r="W27" t="n">
-        <v>297.3794809761474</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="X27" t="n">
-        <v>297.3794809761474</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="Y27" t="n">
-        <v>297.3794809761474</v>
+        <v>140.1700720536062</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="C28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="D28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="E28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="F28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="G28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="H28" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I28" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J28" t="n">
-        <v>51.85740528213429</v>
+        <v>51.85740528213431</v>
       </c>
       <c r="K28" t="n">
         <v>233.079348713643</v>
       </c>
       <c r="L28" t="n">
-        <v>273.4620767854223</v>
+        <v>273.4620767854224</v>
       </c>
       <c r="M28" t="n">
-        <v>448.686795047584</v>
+        <v>535.2099144621059</v>
       </c>
       <c r="N28" t="n">
-        <v>497.4272290917914</v>
+        <v>727.3588948572501</v>
       </c>
       <c r="O28" t="n">
-        <v>759.1750667684748</v>
+        <v>759.1750667684753</v>
       </c>
       <c r="P28" t="n">
-        <v>982.5131533968628</v>
+        <v>982.5131533968632</v>
       </c>
       <c r="Q28" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="R28" t="n">
-        <v>1055.33576585284</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S28" t="n">
-        <v>1055.33576585284</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T28" t="n">
-        <v>1055.33576585284</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U28" t="n">
-        <v>788.2733868336753</v>
+        <v>790.5046418967282</v>
       </c>
       <c r="V28" t="n">
-        <v>522.2940416544996</v>
+        <v>524.5252967175525</v>
       </c>
       <c r="W28" t="n">
-        <v>255.2316626353348</v>
+        <v>257.4629176983875</v>
       </c>
       <c r="X28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.15134041831785</v>
+        <v>23.3825954813706</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21.15134041831785</v>
+        <v>720.410089359951</v>
       </c>
       <c r="C29" t="n">
-        <v>21.15134041831785</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="D29" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="E29" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="F29" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="G29" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="H29" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I29" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J29" t="n">
-        <v>66.50789150215647</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K29" t="n">
-        <v>167.4656409637684</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L29" t="n">
-        <v>316.6988016734351</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M29" t="n">
-        <v>503.3345814532953</v>
+        <v>503.3345814532956</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9892987179356</v>
+        <v>695.989298717936</v>
       </c>
       <c r="O29" t="n">
-        <v>869.2397653754925</v>
+        <v>869.2397653754929</v>
       </c>
       <c r="P29" t="n">
-        <v>994.6793798181882</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q29" t="n">
         <v>1057.567020915893</v>
@@ -6490,25 +6490,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S29" t="n">
-        <v>1057.567020915893</v>
+        <v>935.3930217630572</v>
       </c>
       <c r="T29" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="U29" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="V29" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="W29" t="n">
-        <v>822.3384774758124</v>
+        <v>720.410089359951</v>
       </c>
       <c r="X29" t="n">
-        <v>555.2760984566476</v>
+        <v>720.410089359951</v>
       </c>
       <c r="Y29" t="n">
-        <v>288.2137194374827</v>
+        <v>720.410089359951</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>643.488149642681</v>
+        <v>32.82054151412186</v>
       </c>
       <c r="C30" t="n">
-        <v>492.8339192027732</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D30" t="n">
-        <v>492.8339192027732</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E30" t="n">
-        <v>356.387428313661</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F30" t="n">
-        <v>231.9556221967927</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G30" t="n">
-        <v>112.9368905615044</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H30" t="n">
-        <v>34.69417599039333</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I30" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J30" t="n">
-        <v>35.93379099832519</v>
+        <v>201.3583756725857</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9999896248453</v>
+        <v>277.4245742991059</v>
       </c>
       <c r="L30" t="n">
-        <v>244.390032581005</v>
+        <v>409.8146172552656</v>
       </c>
       <c r="M30" t="n">
-        <v>411.4649325879052</v>
+        <v>576.8895172621658</v>
       </c>
       <c r="N30" t="n">
-        <v>592.3274272463428</v>
+        <v>757.7520119206035</v>
       </c>
       <c r="O30" t="n">
-        <v>743.3384086232555</v>
+        <v>908.7629932975162</v>
       </c>
       <c r="P30" t="n">
-        <v>977.484856189263</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q30" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R30" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="S30" t="n">
-        <v>984.5915617336307</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T30" t="n">
-        <v>984.5915617336307</v>
+        <v>884.7795174618483</v>
       </c>
       <c r="U30" t="n">
-        <v>984.5915617336307</v>
+        <v>674.7848666597563</v>
       </c>
       <c r="V30" t="n">
-        <v>984.5915617336307</v>
+        <v>452.2448650308233</v>
       </c>
       <c r="W30" t="n">
-        <v>984.5915617336307</v>
+        <v>222.1276191641102</v>
       </c>
       <c r="X30" t="n">
-        <v>795.2844840836424</v>
+        <v>32.82054151412186</v>
       </c>
       <c r="Y30" t="n">
-        <v>795.2844840836424</v>
+        <v>32.82054151412186</v>
       </c>
     </row>
     <row r="31">
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H31" t="n">
-        <v>115.1221830029051</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I31" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J31" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K31" t="n">
         <v>202.3732838498265</v>
       </c>
       <c r="L31" t="n">
-        <v>242.7560119216058</v>
+        <v>242.7560119216059</v>
       </c>
       <c r="M31" t="n">
-        <v>504.5038495982893</v>
+        <v>504.5038495982894</v>
       </c>
       <c r="N31" t="n">
-        <v>766.2516872749727</v>
+        <v>766.2516872749729</v>
       </c>
       <c r="O31" t="n">
-        <v>798.0678591861979</v>
+        <v>834.2289342875051</v>
       </c>
       <c r="P31" t="n">
-        <v>982.5131533968628</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="Q31" t="n">
         <v>1057.567020915893</v>
@@ -6651,22 +6651,22 @@
         <v>1057.567020915893</v>
       </c>
       <c r="T31" t="n">
-        <v>1057.567020915893</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="U31" t="n">
-        <v>790.5046418967279</v>
+        <v>558.514876742389</v>
       </c>
       <c r="V31" t="n">
-        <v>790.5046418967279</v>
+        <v>292.5355315632132</v>
       </c>
       <c r="W31" t="n">
-        <v>523.4422628775631</v>
+        <v>244.2634016016745</v>
       </c>
       <c r="X31" t="n">
-        <v>523.4422628775631</v>
+        <v>244.2634016016745</v>
       </c>
       <c r="Y31" t="n">
-        <v>300.3302016942064</v>
+        <v>21.15134041831787</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>842.5840885127866</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="C32" t="n">
-        <v>575.5217094936218</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D32" t="n">
-        <v>575.5217094936218</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E32" t="n">
-        <v>308.4593304744569</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F32" t="n">
-        <v>41.39695145529208</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G32" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H32" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I32" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J32" t="n">
-        <v>66.50789150215647</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K32" t="n">
-        <v>167.4656409637684</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L32" t="n">
-        <v>316.6988016734351</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M32" t="n">
-        <v>503.3345814532954</v>
+        <v>503.3345814532956</v>
       </c>
       <c r="N32" t="n">
-        <v>695.9892987179358</v>
+        <v>695.989298717936</v>
       </c>
       <c r="O32" t="n">
-        <v>869.2397653754925</v>
+        <v>869.2397653754929</v>
       </c>
       <c r="P32" t="n">
-        <v>994.6793798181882</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q32" t="n">
         <v>1057.567020915893</v>
@@ -6727,25 +6727,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S32" t="n">
-        <v>1057.567020915893</v>
+        <v>935.3930217630572</v>
       </c>
       <c r="T32" t="n">
-        <v>842.5840885127866</v>
+        <v>720.410089359951</v>
       </c>
       <c r="U32" t="n">
-        <v>842.5840885127866</v>
+        <v>464.8130225251032</v>
       </c>
       <c r="V32" t="n">
-        <v>842.5840885127866</v>
+        <v>464.8130225251032</v>
       </c>
       <c r="W32" t="n">
-        <v>842.5840885127866</v>
+        <v>197.7506435059382</v>
       </c>
       <c r="X32" t="n">
-        <v>842.5840885127866</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="Y32" t="n">
-        <v>842.5840885127866</v>
+        <v>21.15134041831787</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>171.1406668795056</v>
+        <v>171.8055708582256</v>
       </c>
       <c r="C33" t="n">
-        <v>171.1406668795056</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="D33" t="n">
-        <v>171.1406668795056</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E33" t="n">
-        <v>34.69417599039333</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F33" t="n">
-        <v>34.69417599039333</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G33" t="n">
-        <v>34.69417599039333</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H33" t="n">
-        <v>34.69417599039333</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I33" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J33" t="n">
-        <v>201.3583756725854</v>
+        <v>35.93379099832519</v>
       </c>
       <c r="K33" t="n">
-        <v>277.4245742991055</v>
+        <v>111.9999896248453</v>
       </c>
       <c r="L33" t="n">
-        <v>409.8146172552653</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M33" t="n">
-        <v>576.8895172621654</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N33" t="n">
-        <v>757.7520119206031</v>
+        <v>592.3274272463429</v>
       </c>
       <c r="O33" t="n">
-        <v>908.7629932975158</v>
+        <v>743.3384086232556</v>
       </c>
       <c r="P33" t="n">
-        <v>1017.396126157648</v>
+        <v>851.971541483388</v>
       </c>
       <c r="Q33" t="n">
         <v>1057.567020915893</v>
@@ -6806,25 +6806,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S33" t="n">
-        <v>941.9740650886042</v>
+        <v>941.9740650886047</v>
       </c>
       <c r="T33" t="n">
-        <v>769.1865616345593</v>
+        <v>941.9740650886047</v>
       </c>
       <c r="U33" t="n">
-        <v>559.1919108324673</v>
+        <v>941.9740650886047</v>
       </c>
       <c r="V33" t="n">
-        <v>401.2579127462187</v>
+        <v>719.4340634596717</v>
       </c>
       <c r="W33" t="n">
-        <v>171.1406668795056</v>
+        <v>692.2231998736681</v>
       </c>
       <c r="X33" t="n">
-        <v>171.1406668795056</v>
+        <v>502.9161222236798</v>
       </c>
       <c r="Y33" t="n">
-        <v>171.1406668795056</v>
+        <v>323.601905299187</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>502.5483835906114</v>
+        <v>344.0913946841018</v>
       </c>
       <c r="C34" t="n">
-        <v>332.3432656566006</v>
+        <v>344.0913946841018</v>
       </c>
       <c r="D34" t="n">
-        <v>176.7101525591154</v>
+        <v>344.0913946841018</v>
       </c>
       <c r="E34" t="n">
-        <v>21.15134041831785</v>
+        <v>188.5325825433044</v>
       </c>
       <c r="F34" t="n">
-        <v>21.15134041831785</v>
+        <v>188.5325825433044</v>
       </c>
       <c r="G34" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H34" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J34" t="n">
-        <v>21.15134041831785</v>
+        <v>51.85740528213431</v>
       </c>
       <c r="K34" t="n">
-        <v>202.3732838498265</v>
+        <v>233.079348713643</v>
       </c>
       <c r="L34" t="n">
-        <v>464.12112152651</v>
+        <v>494.8271863903266</v>
       </c>
       <c r="M34" t="n">
-        <v>678.6184608130422</v>
+        <v>756.5750240670102</v>
       </c>
       <c r="N34" t="n">
-        <v>727.3588948572497</v>
+        <v>1010.916898758485</v>
       </c>
       <c r="O34" t="n">
-        <v>759.1750667684748</v>
+        <v>1042.73307066971</v>
       </c>
       <c r="P34" t="n">
-        <v>982.5131533968628</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="Q34" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="R34" t="n">
-        <v>1057.567020915893</v>
+        <v>972.910822839007</v>
       </c>
       <c r="S34" t="n">
-        <v>1057.567020915893</v>
+        <v>785.3054678739541</v>
       </c>
       <c r="T34" t="n">
-        <v>825.5772557615535</v>
+        <v>785.3054678739541</v>
       </c>
       <c r="U34" t="n">
-        <v>825.5772557615535</v>
+        <v>785.3054678739541</v>
       </c>
       <c r="V34" t="n">
-        <v>825.5772557615535</v>
+        <v>785.3054678739541</v>
       </c>
       <c r="W34" t="n">
-        <v>825.5772557615535</v>
+        <v>567.2034558674585</v>
       </c>
       <c r="X34" t="n">
-        <v>825.5772557615535</v>
+        <v>567.2034558674585</v>
       </c>
       <c r="Y34" t="n">
-        <v>687.7564022819126</v>
+        <v>344.0913946841018</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>523.4422628775633</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="C35" t="n">
+        <v>555.2760984566478</v>
+      </c>
+      <c r="D35" t="n">
+        <v>555.2760984566478</v>
+      </c>
+      <c r="E35" t="n">
         <v>288.2137194374828</v>
-      </c>
-      <c r="D35" t="n">
-        <v>21.15134041831787</v>
-      </c>
-      <c r="E35" t="n">
-        <v>21.15134041831787</v>
       </c>
       <c r="F35" t="n">
         <v>21.15134041831787</v>
@@ -6937,22 +6937,22 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J35" t="n">
-        <v>66.50789150215668</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K35" t="n">
-        <v>167.4656409637687</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L35" t="n">
-        <v>316.6988016734355</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M35" t="n">
-        <v>503.3345814532959</v>
+        <v>503.3345814532956</v>
       </c>
       <c r="N35" t="n">
-        <v>695.9892987179362</v>
+        <v>695.989298717936</v>
       </c>
       <c r="O35" t="n">
-        <v>869.239765375493</v>
+        <v>869.2397653754929</v>
       </c>
       <c r="P35" t="n">
         <v>994.6793798181886</v>
@@ -6964,25 +6964,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S35" t="n">
-        <v>1057.567020915893</v>
+        <v>935.3930217630572</v>
       </c>
       <c r="T35" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="U35" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="V35" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="W35" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="X35" t="n">
-        <v>1057.567020915893</v>
+        <v>720.410089359951</v>
       </c>
       <c r="Y35" t="n">
-        <v>790.5046418967282</v>
+        <v>720.410089359951</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>368.4021130859051</v>
+        <v>26.29382804367413</v>
       </c>
       <c r="C36" t="n">
-        <v>368.4021130859051</v>
+        <v>26.29382804367413</v>
       </c>
       <c r="D36" t="n">
-        <v>368.4021130859051</v>
+        <v>26.29382804367413</v>
       </c>
       <c r="E36" t="n">
-        <v>231.9556221967928</v>
+        <v>26.29382804367413</v>
       </c>
       <c r="F36" t="n">
-        <v>231.9556221967928</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G36" t="n">
-        <v>112.9368905615045</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H36" t="n">
-        <v>34.69417599039335</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I36" t="n">
         <v>21.15134041831787</v>
       </c>
       <c r="J36" t="n">
-        <v>201.3583756725859</v>
+        <v>201.3583756725857</v>
       </c>
       <c r="K36" t="n">
-        <v>277.424574299106</v>
+        <v>277.4245742991059</v>
       </c>
       <c r="L36" t="n">
-        <v>409.8146172552657</v>
+        <v>409.8146172552656</v>
       </c>
       <c r="M36" t="n">
-        <v>576.8895172621659</v>
+        <v>576.8895172621658</v>
       </c>
       <c r="N36" t="n">
         <v>757.7520119206035</v>
@@ -7058,10 +7058,10 @@
         <v>394.9151226181552</v>
       </c>
       <c r="X36" t="n">
-        <v>368.4021130859051</v>
+        <v>205.6080449681669</v>
       </c>
       <c r="Y36" t="n">
-        <v>368.4021130859051</v>
+        <v>26.29382804367413</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>250.7466174821461</v>
+        <v>662.0149735065692</v>
       </c>
       <c r="C37" t="n">
-        <v>80.54149954813536</v>
+        <v>491.8098555725584</v>
       </c>
       <c r="D37" t="n">
-        <v>80.54149954813536</v>
+        <v>491.8098555725584</v>
       </c>
       <c r="E37" t="n">
-        <v>80.54149954813536</v>
+        <v>336.2510434317609</v>
       </c>
       <c r="F37" t="n">
-        <v>21.15134041831787</v>
+        <v>336.2510434317609</v>
       </c>
       <c r="G37" t="n">
-        <v>21.15134041831787</v>
+        <v>168.8698013067743</v>
       </c>
       <c r="H37" t="n">
         <v>21.15134041831787</v>
@@ -7095,52 +7095,52 @@
         <v>21.15134041831787</v>
       </c>
       <c r="J37" t="n">
-        <v>51.85740528213429</v>
+        <v>51.85740528213431</v>
       </c>
       <c r="K37" t="n">
-        <v>68.22427597096157</v>
+        <v>233.079348713643</v>
       </c>
       <c r="L37" t="n">
-        <v>329.9721136476451</v>
+        <v>494.8271863903266</v>
       </c>
       <c r="M37" t="n">
-        <v>591.7199513243287</v>
+        <v>756.5750240670102</v>
       </c>
       <c r="N37" t="n">
-        <v>853.4677890010123</v>
+        <v>805.3154581112176</v>
       </c>
       <c r="O37" t="n">
-        <v>885.2839609122375</v>
+        <v>967.6792031506803</v>
       </c>
       <c r="P37" t="n">
-        <v>1057.567020915893</v>
+        <v>982.5131533968632</v>
       </c>
       <c r="Q37" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="R37" t="n">
-        <v>972.910822839007</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S37" t="n">
-        <v>972.910822839007</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T37" t="n">
-        <v>740.9210576846677</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U37" t="n">
-        <v>740.9210576846677</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="V37" t="n">
-        <v>740.9210576846677</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="W37" t="n">
-        <v>473.8586786655028</v>
+        <v>790.5046418967282</v>
       </c>
       <c r="X37" t="n">
-        <v>473.8586786655028</v>
+        <v>662.0149735065692</v>
       </c>
       <c r="Y37" t="n">
-        <v>250.7466174821461</v>
+        <v>662.0149735065692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>555.2760984566476</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="C38" t="n">
-        <v>555.2760984566476</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="D38" t="n">
-        <v>288.2137194374827</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="E38" t="n">
-        <v>288.2137194374827</v>
+        <v>534.9075750618804</v>
       </c>
       <c r="F38" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="G38" t="n">
-        <v>21.15134041831785</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="H38" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I38" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J38" t="n">
-        <v>66.50789150215638</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K38" t="n">
-        <v>167.4656409637685</v>
+        <v>167.4656409637684</v>
       </c>
       <c r="L38" t="n">
-        <v>316.6988016734352</v>
+        <v>316.6988016734354</v>
       </c>
       <c r="M38" t="n">
-        <v>503.3345814532956</v>
+        <v>503.3345814532958</v>
       </c>
       <c r="N38" t="n">
-        <v>695.9892987179358</v>
+        <v>695.9892987179362</v>
       </c>
       <c r="O38" t="n">
-        <v>869.2397653754925</v>
+        <v>869.239765375493</v>
       </c>
       <c r="P38" t="n">
-        <v>994.6793798181882</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q38" t="n">
         <v>1057.567020915893</v>
@@ -7207,19 +7207,19 @@
         <v>1057.567020915893</v>
       </c>
       <c r="U38" t="n">
-        <v>1057.567020915893</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="V38" t="n">
-        <v>822.3384774758124</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="W38" t="n">
-        <v>555.2760984566476</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="X38" t="n">
-        <v>555.2760984566476</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="Y38" t="n">
-        <v>555.2760984566476</v>
+        <v>801.9699540810453</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>369.884833182479</v>
+        <v>432.6838678642061</v>
       </c>
       <c r="C39" t="n">
-        <v>369.884833182479</v>
+        <v>282.0296374242984</v>
       </c>
       <c r="D39" t="n">
-        <v>239.7958658039593</v>
+        <v>282.0296374242984</v>
       </c>
       <c r="E39" t="n">
-        <v>103.349374914847</v>
+        <v>145.5831465351861</v>
       </c>
       <c r="F39" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G39" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H39" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I39" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J39" t="n">
         <v>35.93379099832519</v>
@@ -7259,46 +7259,46 @@
         <v>111.9999896248453</v>
       </c>
       <c r="L39" t="n">
-        <v>275.2304096170969</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M39" t="n">
-        <v>536.9782472937803</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N39" t="n">
-        <v>717.840741952218</v>
+        <v>592.3274272463429</v>
       </c>
       <c r="O39" t="n">
-        <v>868.8517233291307</v>
+        <v>743.3384086232556</v>
       </c>
       <c r="P39" t="n">
-        <v>977.484856189263</v>
+        <v>851.971541483388</v>
       </c>
       <c r="Q39" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R39" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="S39" t="n">
-        <v>941.9740650886042</v>
+        <v>941.9740650886047</v>
       </c>
       <c r="T39" t="n">
-        <v>769.1865616345593</v>
+        <v>769.1865616345598</v>
       </c>
       <c r="U39" t="n">
-        <v>559.1919108324673</v>
+        <v>655.2238694931391</v>
       </c>
       <c r="V39" t="n">
-        <v>559.1919108324673</v>
+        <v>432.6838678642061</v>
       </c>
       <c r="W39" t="n">
-        <v>559.1919108324673</v>
+        <v>432.6838678642061</v>
       </c>
       <c r="X39" t="n">
-        <v>369.884833182479</v>
+        <v>432.6838678642061</v>
       </c>
       <c r="Y39" t="n">
-        <v>369.884833182479</v>
+        <v>432.6838678642061</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>450.6733250425216</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="C40" t="n">
-        <v>280.4682071085108</v>
+        <v>655.3721378275432</v>
       </c>
       <c r="D40" t="n">
-        <v>280.4682071085108</v>
+        <v>499.7390247300579</v>
       </c>
       <c r="E40" t="n">
-        <v>280.4682071085108</v>
+        <v>452.7051122061739</v>
       </c>
       <c r="F40" t="n">
-        <v>123.1422723214837</v>
+        <v>295.3791774191468</v>
       </c>
       <c r="G40" t="n">
-        <v>123.1422723214837</v>
+        <v>127.9979352941603</v>
       </c>
       <c r="H40" t="n">
-        <v>21.15134041831785</v>
+        <v>127.9979352941603</v>
       </c>
       <c r="I40" t="n">
-        <v>21.15134041831785</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J40" t="n">
-        <v>51.85740528213429</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K40" t="n">
-        <v>233.079348713643</v>
+        <v>202.3732838498265</v>
       </c>
       <c r="L40" t="n">
-        <v>273.4620767854223</v>
+        <v>464.1211215265101</v>
       </c>
       <c r="M40" t="n">
-        <v>535.2099144621056</v>
+        <v>540.6649246995964</v>
       </c>
       <c r="N40" t="n">
-        <v>727.3588948572497</v>
+        <v>802.4127623762799</v>
       </c>
       <c r="O40" t="n">
-        <v>759.1750667684748</v>
+        <v>834.2289342875051</v>
       </c>
       <c r="P40" t="n">
-        <v>982.5131533968628</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="Q40" t="n">
         <v>1057.567020915893</v>
@@ -7359,25 +7359,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S40" t="n">
-        <v>869.9616659508398</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T40" t="n">
-        <v>869.9616659508398</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="U40" t="n">
-        <v>869.9616659508398</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="V40" t="n">
-        <v>869.9616659508398</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="W40" t="n">
-        <v>869.9616659508398</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="X40" t="n">
-        <v>635.8813437338229</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.8813437338229</v>
+        <v>825.5772557615539</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="C41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="D41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="E41" t="n">
-        <v>790.5046418967281</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F41" t="n">
-        <v>523.4422628775633</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G41" t="n">
-        <v>288.2137194374827</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H41" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I41" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J41" t="n">
-        <v>66.50789150215655</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K41" t="n">
         <v>167.4656409637685</v>
@@ -7420,7 +7420,7 @@
         <v>316.6988016734353</v>
       </c>
       <c r="M41" t="n">
-        <v>503.3345814532957</v>
+        <v>503.3345814532956</v>
       </c>
       <c r="N41" t="n">
         <v>695.989298717936</v>
@@ -7429,7 +7429,7 @@
         <v>869.2397653754929</v>
       </c>
       <c r="P41" t="n">
-        <v>994.6793798181884</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q41" t="n">
         <v>1057.567020915893</v>
@@ -7444,19 +7444,19 @@
         <v>1057.567020915893</v>
       </c>
       <c r="U41" t="n">
-        <v>1057.567020915893</v>
+        <v>801.9699540810453</v>
       </c>
       <c r="V41" t="n">
-        <v>790.5046418967281</v>
+        <v>534.9075750618804</v>
       </c>
       <c r="W41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="X41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="Y41" t="n">
-        <v>790.5046418967281</v>
+        <v>288.2137194374828</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>752.6669874386162</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="C42" t="n">
-        <v>622.9228865812929</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="D42" t="n">
-        <v>492.8339192027732</v>
+        <v>264.8261552396356</v>
       </c>
       <c r="E42" t="n">
-        <v>356.387428313661</v>
+        <v>145.5831465351861</v>
       </c>
       <c r="F42" t="n">
-        <v>231.9556221967927</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G42" t="n">
-        <v>112.9368905615044</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H42" t="n">
-        <v>34.69417599039334</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I42" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J42" t="n">
-        <v>161.4471057042006</v>
+        <v>35.93379099832519</v>
       </c>
       <c r="K42" t="n">
-        <v>237.5133043307207</v>
+        <v>111.9999896248453</v>
       </c>
       <c r="L42" t="n">
-        <v>369.9033472868804</v>
+        <v>244.3900325810051</v>
       </c>
       <c r="M42" t="n">
-        <v>536.9782472937806</v>
+        <v>411.4649325879053</v>
       </c>
       <c r="N42" t="n">
-        <v>717.8407419522182</v>
+        <v>592.3274272463429</v>
       </c>
       <c r="O42" t="n">
-        <v>868.8517233291309</v>
+        <v>743.3384086232556</v>
       </c>
       <c r="P42" t="n">
-        <v>977.4848561892633</v>
+        <v>851.971541483388</v>
       </c>
       <c r="Q42" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R42" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="S42" t="n">
-        <v>941.9740650886044</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T42" t="n">
-        <v>941.9740650886044</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U42" t="n">
-        <v>941.9740650886044</v>
+        <v>847.5723701138013</v>
       </c>
       <c r="V42" t="n">
-        <v>941.9740650886044</v>
+        <v>625.0323684848684</v>
       </c>
       <c r="W42" t="n">
-        <v>941.9740650886044</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="X42" t="n">
-        <v>752.6669874386162</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="Y42" t="n">
-        <v>752.6669874386162</v>
+        <v>394.9151226181552</v>
       </c>
     </row>
     <row r="43">
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.4345545253719</v>
+        <v>334.0360873461424</v>
       </c>
       <c r="C43" t="n">
-        <v>324.4345545253719</v>
+        <v>334.0360873461424</v>
       </c>
       <c r="D43" t="n">
-        <v>324.4345545253719</v>
+        <v>334.0360873461424</v>
       </c>
       <c r="E43" t="n">
-        <v>168.8757423845744</v>
+        <v>178.4772752053449</v>
       </c>
       <c r="F43" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G43" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H43" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I43" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J43" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K43" t="n">
-        <v>202.3732838498265</v>
+        <v>37.51821110714516</v>
       </c>
       <c r="L43" t="n">
-        <v>242.7560119216058</v>
+        <v>77.90093917892452</v>
       </c>
       <c r="M43" t="n">
-        <v>504.5038495982893</v>
+        <v>339.648776855608</v>
       </c>
       <c r="N43" t="n">
-        <v>572.4810966108214</v>
+        <v>601.3966145322916</v>
       </c>
       <c r="O43" t="n">
-        <v>834.2289342875049</v>
+        <v>863.1444522089751</v>
       </c>
       <c r="P43" t="n">
         <v>1057.567020915893</v>
@@ -7599,22 +7599,22 @@
         <v>1057.567020915893</v>
       </c>
       <c r="T43" t="n">
-        <v>825.5772557615537</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U43" t="n">
-        <v>825.5772557615537</v>
+        <v>834.0957547423351</v>
       </c>
       <c r="V43" t="n">
-        <v>825.5772557615537</v>
+        <v>568.1164095631593</v>
       </c>
       <c r="W43" t="n">
-        <v>558.5148767423889</v>
+        <v>568.1164095631593</v>
       </c>
       <c r="X43" t="n">
-        <v>324.4345545253719</v>
+        <v>334.0360873461424</v>
       </c>
       <c r="Y43" t="n">
-        <v>324.4345545253719</v>
+        <v>334.0360873461424</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.2137194374827</v>
+        <v>555.2760984566478</v>
       </c>
       <c r="C44" t="n">
-        <v>288.2137194374827</v>
+        <v>288.2137194374828</v>
       </c>
       <c r="D44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="E44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="F44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="G44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I44" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J44" t="n">
-        <v>66.50789150215641</v>
+        <v>66.50789150215644</v>
       </c>
       <c r="K44" t="n">
-        <v>167.4656409637684</v>
+        <v>167.4656409637685</v>
       </c>
       <c r="L44" t="n">
-        <v>316.6988016734352</v>
+        <v>316.6988016734353</v>
       </c>
       <c r="M44" t="n">
         <v>503.3345814532956</v>
       </c>
       <c r="N44" t="n">
-        <v>695.9892987179359</v>
+        <v>695.9892987179361</v>
       </c>
       <c r="O44" t="n">
-        <v>869.2397653754928</v>
+        <v>869.2397653754931</v>
       </c>
       <c r="P44" t="n">
-        <v>994.6793798181884</v>
+        <v>994.6793798181886</v>
       </c>
       <c r="Q44" t="n">
         <v>1057.567020915893</v>
@@ -7675,25 +7675,25 @@
         <v>1057.567020915893</v>
       </c>
       <c r="S44" t="n">
-        <v>935.3930217630569</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T44" t="n">
-        <v>720.4100893599508</v>
+        <v>842.584088512787</v>
       </c>
       <c r="U44" t="n">
-        <v>464.813022525103</v>
+        <v>586.9870216779392</v>
       </c>
       <c r="V44" t="n">
-        <v>464.813022525103</v>
+        <v>586.9870216779392</v>
       </c>
       <c r="W44" t="n">
-        <v>288.2137194374827</v>
+        <v>586.9870216779392</v>
       </c>
       <c r="X44" t="n">
-        <v>288.2137194374827</v>
+        <v>586.9870216779392</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.2137194374827</v>
+        <v>586.9870216779392</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>222.12761916411</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="C45" t="n">
-        <v>222.12761916411</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="D45" t="n">
-        <v>92.0386517855903</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="E45" t="n">
-        <v>92.0386517855903</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="F45" t="n">
-        <v>21.15134041831786</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="G45" t="n">
-        <v>21.15134041831786</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="H45" t="n">
-        <v>21.15134041831786</v>
+        <v>34.69417599039335</v>
       </c>
       <c r="I45" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J45" t="n">
-        <v>35.93379099832519</v>
+        <v>201.3583756725857</v>
       </c>
       <c r="K45" t="n">
-        <v>237.5133043307207</v>
+        <v>277.4245742991059</v>
       </c>
       <c r="L45" t="n">
-        <v>369.9033472868804</v>
+        <v>409.8146172552656</v>
       </c>
       <c r="M45" t="n">
-        <v>536.9782472937806</v>
+        <v>576.8895172621658</v>
       </c>
       <c r="N45" t="n">
-        <v>717.8407419522182</v>
+        <v>757.7520119206035</v>
       </c>
       <c r="O45" t="n">
-        <v>868.8517233291309</v>
+        <v>908.7629932975162</v>
       </c>
       <c r="P45" t="n">
-        <v>977.4848561892633</v>
+        <v>1017.396126157649</v>
       </c>
       <c r="Q45" t="n">
-        <v>1017.655750947508</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="R45" t="n">
         <v>1057.567020915893</v>
@@ -7757,22 +7757,22 @@
         <v>1057.567020915893</v>
       </c>
       <c r="T45" t="n">
-        <v>884.7795174618481</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="U45" t="n">
-        <v>674.7848666597561</v>
+        <v>847.5723701138013</v>
       </c>
       <c r="V45" t="n">
-        <v>452.2448650308231</v>
+        <v>625.0323684848684</v>
       </c>
       <c r="W45" t="n">
-        <v>222.12761916411</v>
+        <v>394.9151226181552</v>
       </c>
       <c r="X45" t="n">
-        <v>222.12761916411</v>
+        <v>365.8047273558475</v>
       </c>
       <c r="Y45" t="n">
-        <v>222.12761916411</v>
+        <v>186.4905104313547</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>778.4690422809822</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="C46" t="n">
-        <v>608.2639243469714</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="D46" t="n">
-        <v>608.2639243469714</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="E46" t="n">
-        <v>452.7051122061739</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="F46" t="n">
-        <v>295.3791774191468</v>
+        <v>188.5325825433044</v>
       </c>
       <c r="G46" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="H46" t="n">
-        <v>127.9979352941603</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="I46" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="J46" t="n">
-        <v>21.15134041831786</v>
+        <v>21.15134041831787</v>
       </c>
       <c r="K46" t="n">
-        <v>202.3732838498265</v>
+        <v>37.51821110714516</v>
       </c>
       <c r="L46" t="n">
-        <v>464.12112152651</v>
+        <v>182.4356901206296</v>
       </c>
       <c r="M46" t="n">
-        <v>508.8169301611383</v>
+        <v>444.1835277973132</v>
       </c>
       <c r="N46" t="n">
-        <v>557.5573642053456</v>
+        <v>705.9313654739967</v>
       </c>
       <c r="O46" t="n">
-        <v>759.1750667684751</v>
+        <v>967.6792031506803</v>
       </c>
       <c r="P46" t="n">
-        <v>982.513153396863</v>
+        <v>982.5131533968632</v>
       </c>
       <c r="Q46" t="n">
         <v>1057.567020915893</v>
       </c>
       <c r="R46" t="n">
-        <v>972.9108228390068</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="S46" t="n">
-        <v>972.9108228390068</v>
+        <v>1057.567020915893</v>
       </c>
       <c r="T46" t="n">
-        <v>972.9108228390068</v>
+        <v>825.5772557615539</v>
       </c>
       <c r="U46" t="n">
-        <v>972.9108228390068</v>
+        <v>558.514876742389</v>
       </c>
       <c r="V46" t="n">
-        <v>972.9108228390068</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="W46" t="n">
-        <v>972.9108228390068</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="X46" t="n">
-        <v>972.9108228390068</v>
+        <v>345.8585173303314</v>
       </c>
       <c r="Y46" t="n">
-        <v>963.6770609722835</v>
+        <v>345.8585173303314</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>46.74967917541601</v>
       </c>
       <c r="K2" t="n">
-        <v>36.75248193446046</v>
+        <v>36.75248193446048</v>
       </c>
       <c r="L2" t="n">
         <v>21.36627421377045</v>
@@ -7996,7 +7996,7 @@
         <v>8.75547455640654</v>
       </c>
       <c r="P2" t="n">
-        <v>30.12476724996209</v>
+        <v>30.1247672499621</v>
       </c>
       <c r="Q2" t="n">
         <v>54.25101662582001</v>
@@ -8078,7 +8078,7 @@
         <v>1.698038997342408</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.91032407045577</v>
+        <v>33.91032407045576</v>
       </c>
       <c r="R3" t="n">
         <v>66.92938550216252</v>
@@ -8154,7 +8154,7 @@
         <v>37.0102385447647</v>
       </c>
       <c r="P4" t="n">
-        <v>44.18408838467263</v>
+        <v>44.18408838467262</v>
       </c>
       <c r="Q4" t="n">
         <v>67.08779846355691</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>167.0955400750108</v>
       </c>
       <c r="K12" t="n">
-        <v>126.7811259655312</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>71.01380490566048</v>
+        <v>30.6993907961806</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,25 +8850,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>163.5882596037818</v>
       </c>
       <c r="L13" t="n">
         <v>223.6011208130347</v>
       </c>
       <c r="M13" t="n">
-        <v>70.21778334852496</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N13" t="n">
-        <v>215.1589935681579</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>232.2542078438975</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>26.12302767633267</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>55.24012967120177</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>111.8554104038089</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.7811259655311</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>71.01380490566048</v>
+        <v>30.6993907961806</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L16" t="n">
-        <v>223.6011208130347</v>
+        <v>223.6011208130346</v>
       </c>
       <c r="M16" t="n">
-        <v>219.244473779854</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>28.08421124129212</v>
+        <v>162.8824626182363</v>
       </c>
       <c r="P16" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.12302767633267</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>167.0955400750113</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="R18" t="n">
         <v>30.69939079618062</v>
@@ -9330,13 +9330,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>219.244473779854</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N19" t="n">
-        <v>19.43112421042935</v>
+        <v>19.4311242104291</v>
       </c>
       <c r="O19" t="n">
-        <v>232.2542078438975</v>
+        <v>232.2542078438973</v>
       </c>
       <c r="P19" t="n">
         <v>210.6102387699041</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>19.12600572727047</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>126.7811259655305</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>12.43422207849423</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>154.6613179965164</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>150.5785255397381</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
         <v>223.6011208130346</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>207.6782228760278</v>
       </c>
       <c r="O22" t="n">
-        <v>232.2542078438973</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>26.12302767633268</v>
+        <v>26.1230276763327</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>111.855410403809</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>14.92571556172214</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.0955400750109</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.4725364634484</v>
+        <v>21.45630932828028</v>
       </c>
       <c r="K25" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L25" t="n">
-        <v>223.6011208130346</v>
+        <v>223.6011208130347</v>
       </c>
       <c r="M25" t="n">
-        <v>216.3124578859777</v>
+        <v>166.9679428299328</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>215.1589935681579</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>26.1230276763327</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>167.0955400750103</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10041,13 +10041,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>131.8473834621551</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>144.8571175261989</v>
       </c>
       <c r="O28" t="n">
-        <v>232.2542078438972</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>210.6102387699041</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>126.7811259655305</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,19 +10278,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>219.2444737798537</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N31" t="n">
-        <v>215.1589935681577</v>
+        <v>215.1589935681578</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>36.52633848616867</v>
       </c>
       <c r="P31" t="n">
-        <v>171.3245898631131</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q31" t="n">
-        <v>101.9350150692923</v>
+        <v>26.1230276763327</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>167.0955400750103</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="R33" t="n">
         <v>30.69939079618062</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>21.45630932828028</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K34" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L34" t="n">
-        <v>223.6011208130345</v>
+        <v>223.6011208130346</v>
       </c>
       <c r="M34" t="n">
-        <v>171.5166976281859</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>207.6782228760278</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>101.9350150692923</v>
+        <v>26.1230276763327</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>167.0955400750108</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
         <v>223.6011208130346</v>
       </c>
       <c r="M37" t="n">
-        <v>219.2444737798538</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N37" t="n">
-        <v>215.1589935681578</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>131.8662354830682</v>
       </c>
       <c r="P37" t="n">
-        <v>159.0395048055281</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>26.1230276763327</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>31.15189599605239</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>95.62922996947805</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="R39" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>52.4725364634484</v>
+        <v>21.45630932828028</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>223.6011208130346</v>
       </c>
       <c r="M40" t="n">
-        <v>219.2444737798538</v>
+        <v>32.16969145298795</v>
       </c>
       <c r="N40" t="n">
-        <v>144.8571175261986</v>
+        <v>215.1589935681578</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>26.1230276763327</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>126.7811259655307</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="R42" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>21.45630932828028</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>219.2444737798538</v>
+        <v>219.2444737798539</v>
       </c>
       <c r="N43" t="n">
-        <v>19.431124210429</v>
+        <v>215.1589935681578</v>
       </c>
       <c r="O43" t="n">
         <v>232.2542078438973</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>181.4026449098335</v>
       </c>
       <c r="Q43" t="n">
         <v>26.1230276763327</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>19.1260057272705</v>
+        <v>19.12600572727048</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>167.0955400750107</v>
       </c>
       <c r="K45" t="n">
-        <v>126.7811259655307</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>30.69939079618062</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>21.45630932828028</v>
       </c>
       <c r="K46" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>223.6011208130345</v>
+        <v>105.5906575168738</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>219.2444737798538</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>215.1589935681578</v>
       </c>
       <c r="O46" t="n">
-        <v>171.5166976281861</v>
+        <v>232.2542078438973</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -22561,7 +22561,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>8.195414220098041</v>
+        <v>8.19541422009803</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>124.8519912531252</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>117.1949622665255</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>134.1659344056474</v>
+        <v>134.1659344056475</v>
       </c>
       <c r="F11" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.1048016662766</v>
+        <v>142.7130464373032</v>
       </c>
       <c r="H11" t="n">
         <v>301.1142308055648</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0410961664994</v>
+        <v>89.55844517222894</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>159.6495439829251</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23339,13 +23339,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>83.45327642211043</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V12" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>212.4973009673201</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,7 +23436,7 @@
         <v>146.2412762795719</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.778128927084</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7293014154023</v>
       </c>
       <c r="T13" t="n">
-        <v>106.6467172051568</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>18.14551677566391</v>
+        <v>65.02432263318136</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23497,7 +23497,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>124.8519912531253</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9522591613077</v>
+        <v>89.55844517222904</v>
       </c>
       <c r="T14" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0410961664994</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>74.29398597454332</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>102.8972894524219</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>152.6818210105938</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.1340467596314</v>
+        <v>128.1340467596315</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.5370324324967</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>62.27981588685778</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I15" t="n">
         <v>13.40740721635471</v>
@@ -23627,7 +23627,7 @@
         <v>114.4370262690156</v>
       </c>
       <c r="T15" t="n">
-        <v>171.0596284195045</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>207.894704294071</v>
@@ -23636,13 +23636,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.80963609611729</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.940791779662362</v>
       </c>
       <c r="T16" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>18.14551677566391</v>
+        <v>18.14551677566396</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>16.10534281916068</v>
+        <v>16.10534281916074</v>
       </c>
       <c r="X16" t="n">
-        <v>183.5203589029799</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>132.0980430253096</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23740,19 +23740,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056476</v>
       </c>
       <c r="F17" t="n">
-        <v>311.9318945111467</v>
+        <v>148.3337388563487</v>
       </c>
       <c r="G17" t="n">
-        <v>142.7130464373031</v>
+        <v>407.1048016662766</v>
       </c>
       <c r="H17" t="n">
-        <v>36.72247557659136</v>
+        <v>301.1142308055648</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.68905142009524</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.8331030790751</v>
       </c>
       <c r="U17" t="n">
         <v>253.0410961664994</v>
@@ -23800,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>159.6495439829253</v>
       </c>
     </row>
     <row r="18">
@@ -23819,13 +23819,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>53.94405434082215</v>
       </c>
       <c r="F18" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>77.4602874254</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>102.8845171841692</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y18" t="n">
         <v>177.5210747552478</v>
@@ -23901,13 +23901,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.7074297037366</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.2412762795719</v>
       </c>
       <c r="I19" t="n">
         <v>105.778128927084</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.68185783655529</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5372720046374</v>
+        <v>18.14551677566408</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>197.5560502300901</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2628811861293</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -23980,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>148.3337388563487</v>
       </c>
       <c r="G20" t="n">
-        <v>407.1048016662766</v>
+        <v>142.7130464373033</v>
       </c>
       <c r="H20" t="n">
         <v>301.1142308055648</v>
       </c>
       <c r="I20" t="n">
-        <v>62.68905142009523</v>
+        <v>62.68905142009524</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>89.55844517222917</v>
       </c>
       <c r="V20" t="n">
-        <v>74.29398597454349</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>121.1663237873004</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>69.49738731148128</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24062,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I21" t="n">
-        <v>13.40740721635472</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T21" t="n">
         <v>171.0596284195045</v>
       </c>
       <c r="U21" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>144.056625386406</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24138,10 +24138,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>161.4288356992635</v>
       </c>
       <c r="H22" t="n">
         <v>146.2412762795719</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>185.7293014154024</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5372720046374</v>
+        <v>18.14551677566408</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>16.10534281916085</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.6510780153914</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>163.6135402486033</v>
+        <v>163.6135402486032</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24214,13 +24214,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056475</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>148.3337388563486</v>
       </c>
       <c r="G23" t="n">
-        <v>407.1048016662766</v>
+        <v>142.7130464373032</v>
       </c>
       <c r="H23" t="n">
         <v>301.1142308055648</v>
@@ -24268,13 +24268,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>102.8972894524221</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>121.1663237873004</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>128.1340467596315</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.7258620117053</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>63.7573262875713</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H24" t="n">
         <v>77.4602874254</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>177.5210747552478</v>
@@ -24366,22 +24366,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>139.1138710419589</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.7074297037366</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>66.44208345516792</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>105.778128927084</v>
@@ -24414,25 +24414,25 @@
         <v>83.80963609611729</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.7293014154024</v>
       </c>
       <c r="T25" t="n">
         <v>229.6698675027958</v>
       </c>
       <c r="U25" t="n">
-        <v>18.14551677566404</v>
+        <v>282.5372720046374</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>16.1053428191608</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>163.6135402486033</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>124.8519912531255</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056476</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>148.3337388563487</v>
       </c>
       <c r="G26" t="n">
-        <v>407.1048016662766</v>
+        <v>142.7130464373033</v>
       </c>
       <c r="H26" t="n">
-        <v>301.1142308055648</v>
+        <v>281.0710758789602</v>
       </c>
       <c r="I26" t="n">
         <v>62.68905142009524</v>
@@ -24496,7 +24496,7 @@
         <v>120.9522591613077</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.0410961664994</v>
@@ -24508,10 +24508,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>121.1663237873005</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>128.1340467596317</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24533,10 +24533,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>117.8285443189354</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>77.4602874254</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>17.87674104342847</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T27" t="n">
-        <v>171.0596284195045</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>96.38310311584884</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>165.7074297037366</v>
       </c>
       <c r="H28" t="n">
-        <v>146.2412762795719</v>
+        <v>144.0323337671497</v>
       </c>
       <c r="I28" t="n">
         <v>105.778128927084</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>81.60069358369537</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S28" t="n">
         <v>185.7293014154024</v>
@@ -24657,13 +24657,13 @@
         <v>229.6698675027958</v>
       </c>
       <c r="U28" t="n">
-        <v>18.14551677566419</v>
+        <v>18.14551677566408</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>16.10534281916097</v>
+        <v>16.10534281916085</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>132.0980430253097</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>225.7610954878285</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>117.1949622665256</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24697,7 +24697,7 @@
         <v>407.1048016662766</v>
       </c>
       <c r="H29" t="n">
-        <v>301.1142308055648</v>
+        <v>36.72247557659153</v>
       </c>
       <c r="I29" t="n">
         <v>62.68905142009524</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.0410961664994</v>
@@ -24742,13 +24742,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>134.4127866757159</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>121.1663237873005</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>128.1340467596317</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24758,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>137.5951790506628</v>
       </c>
       <c r="D30" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,19 +24809,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>42.19132167857621</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T30" t="n">
-        <v>171.0596284195045</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24858,7 +24858,7 @@
         <v>146.2412762795719</v>
       </c>
       <c r="I31" t="n">
-        <v>12.74699476834265</v>
+        <v>105.778128927084</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>185.7293014154024</v>
       </c>
       <c r="T31" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>18.14551677566421</v>
+        <v>18.14551677566408</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>16.10534281916097</v>
+        <v>232.7076893862108</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,19 +24919,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>124.8519912531255</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>134.1659344056477</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>148.3337388563488</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>387.0616467396721</v>
+        <v>407.1048016662766</v>
       </c>
       <c r="H32" t="n">
         <v>301.1142308055648</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.0410961664994</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>102.8972894524221</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>210.7247689595296</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F33" t="n">
         <v>123.1874880556995</v>
@@ -25016,7 +25016,7 @@
         <v>77.4602874254</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,22 +25049,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>171.0596284195045</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>207.894704294071</v>
       </c>
       <c r="V33" t="n">
-        <v>63.95994350725752</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>200.8773184579024</v>
       </c>
       <c r="X33" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>165.7074297037366</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>146.2412762795719</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.80963609611729</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.7293014154024</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U34" t="n">
         <v>282.5372720046374</v>
@@ -25137,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>64.57610616170356</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.43829562667864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>132.0980430253096</v>
+        <v>233.0071472600127</v>
       </c>
       <c r="C35" t="n">
-        <v>156.3674884764191</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>117.1949622665256</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056476</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>148.3337388563487</v>
       </c>
       <c r="G35" t="n">
         <v>407.1048016662766</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>120.9522591613077</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.8331030790751</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.0410961664994</v>
@@ -25222,7 +25222,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>128.1340467596316</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>118.0964253065968</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25298,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>161.1661274365608</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25320,16 +25320,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>96.95641790063746</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7074297037366</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.2412762795719</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>105.778128927084</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S37" t="n">
         <v>185.7293014154024</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U37" t="n">
         <v>282.5372720046374</v>
@@ -25377,10 +25377,10 @@
         <v>16.10534281916085</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>104.5347472885892</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>117.1949622665257</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056476</v>
       </c>
       <c r="F38" t="n">
-        <v>148.3337388563488</v>
+        <v>168.4985770171685</v>
       </c>
       <c r="G38" t="n">
         <v>407.1048016662766</v>
       </c>
       <c r="H38" t="n">
-        <v>301.1142308055648</v>
+        <v>36.72247557659153</v>
       </c>
       <c r="I38" t="n">
         <v>62.68905142009524</v>
@@ -25447,13 +25447,13 @@
         <v>212.8331030790751</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0410961664994</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>105.8094831978373</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>102.8972894524222</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -25472,16 +25472,16 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>41.81143390413564</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>117.8285443189354</v>
@@ -25526,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>95.07163907406454</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
         <v>177.5210747552478</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>107.4396506207443</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7074297037366</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>45.27025369543767</v>
+        <v>146.2412762795719</v>
       </c>
       <c r="I40" t="n">
-        <v>105.778128927084</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>83.80963609611729</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.7293014154024</v>
       </c>
       <c r="T40" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5372720046374</v>
@@ -25614,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25636,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>134.1659344056476</v>
       </c>
       <c r="F41" t="n">
-        <v>148.3337388563488</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>174.2285436605969</v>
+        <v>407.1048016662766</v>
       </c>
       <c r="H41" t="n">
-        <v>36.72247557659159</v>
+        <v>301.1142308055648</v>
       </c>
       <c r="I41" t="n">
         <v>62.68905142009524</v>
@@ -25684,13 +25684,13 @@
         <v>212.8331030790751</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0410961664994</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>74.29398597454355</v>
+        <v>74.29398597454349</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>123.0621276132419</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25709,25 +25709,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>20.70102828675869</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>17.03144736281615</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.8285443189354</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.4602874254</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.40740721635473</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>114.4370262690156</v>
       </c>
       <c r="T42" t="n">
         <v>171.0596284195045</v>
       </c>
       <c r="U42" t="n">
-        <v>207.894704294071</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>115.2836464196468</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.7074297037366</v>
@@ -25806,7 +25806,7 @@
         <v>146.2412762795719</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.778128927084</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>185.7293014154024</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.6698675027958</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5372720046374</v>
+        <v>61.30071849281487</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.10534281916091</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>365.0959842652044</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>124.8519912531254</v>
       </c>
       <c r="D44" t="n">
-        <v>117.1949622665257</v>
+        <v>117.1949622665256</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>120.9522591613077</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>192.4557346246514</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>53.0090498020998</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
         <v>117.8285443189354</v>
@@ -25964,7 +25964,7 @@
         <v>77.4602874254</v>
       </c>
       <c r="I45" t="n">
-        <v>13.40740721635473</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,7 +25997,7 @@
         <v>114.4370262690156</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>171.0596284195045</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>158.5947155638038</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>146.2412762795719</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.778128927084</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>83.80963609611729</v>
       </c>
       <c r="S46" t="n">
         <v>185.7293014154024</v>
       </c>
       <c r="T46" t="n">
-        <v>229.6698675027958</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5372720046374</v>
+        <v>18.14551677566408</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>52.78975590944705</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.739516323467</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386909.8059801943</v>
+        <v>386909.8059801942</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>386909.805980194</v>
+        <v>386909.8059801941</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>386909.8059801942</v>
+        <v>386909.8059801941</v>
       </c>
     </row>
     <row r="14">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431798.0448433894</v>
+      </c>
+      <c r="C2" t="n">
         <v>431798.0448433896</v>
-      </c>
-      <c r="C2" t="n">
-        <v>431798.0448433895</v>
       </c>
       <c r="D2" t="n">
         <v>431798.8385980329</v>
       </c>
       <c r="E2" t="n">
-        <v>193080.4866338796</v>
+        <v>193080.4866338795</v>
       </c>
       <c r="F2" t="n">
         <v>193080.4866338796</v>
       </c>
       <c r="G2" t="n">
-        <v>193080.4866338796</v>
+        <v>193080.4866338795</v>
       </c>
       <c r="H2" t="n">
         <v>193080.4866338796</v>
       </c>
       <c r="I2" t="n">
-        <v>193080.4866338795</v>
+        <v>193080.4866338796</v>
       </c>
       <c r="J2" t="n">
         <v>193080.4866338795</v>
       </c>
       <c r="K2" t="n">
-        <v>193080.4866338794</v>
+        <v>193080.4866338796</v>
       </c>
       <c r="L2" t="n">
         <v>193080.4866338795</v>
@@ -26349,10 +26349,10 @@
         <v>193080.4866338796</v>
       </c>
       <c r="N2" t="n">
-        <v>193080.4866338795</v>
+        <v>193080.4866338796</v>
       </c>
       <c r="O2" t="n">
-        <v>193080.4866338795</v>
+        <v>193080.4866338796</v>
       </c>
       <c r="P2" t="n">
         <v>193080.4866338795</v>
@@ -26374,7 +26374,7 @@
         <v>3540.534319587967</v>
       </c>
       <c r="E3" t="n">
-        <v>293575.2796509165</v>
+        <v>293575.2796509163</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65887.48297008111</v>
+        <v>65887.4829700811</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,31 +26429,31 @@
         <v>17068.14097639871</v>
       </c>
       <c r="F4" t="n">
-        <v>17068.14097639871</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="G4" t="n">
+        <v>17068.1409763987</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17068.1409763987</v>
+      </c>
+      <c r="I4" t="n">
         <v>17068.14097639872</v>
       </c>
-      <c r="H4" t="n">
-        <v>17068.14097639869</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17068.14097639871</v>
-      </c>
       <c r="J4" t="n">
-        <v>17068.14097639869</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="K4" t="n">
-        <v>17068.14097639869</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="L4" t="n">
-        <v>17068.14097639869</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="M4" t="n">
-        <v>17068.14097639871</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="N4" t="n">
-        <v>17068.14097639869</v>
+        <v>17068.1409763987</v>
       </c>
       <c r="O4" t="n">
         <v>17068.1409763987</v>
@@ -26484,28 +26484,28 @@
         <v>26521.00461027387</v>
       </c>
       <c r="G5" t="n">
-        <v>26521.00461027387</v>
+        <v>26521.00461027386</v>
       </c>
       <c r="H5" t="n">
         <v>26521.00461027386</v>
       </c>
       <c r="I5" t="n">
+        <v>26521.00461027387</v>
+      </c>
+      <c r="J5" t="n">
         <v>26521.00461027386</v>
       </c>
-      <c r="J5" t="n">
-        <v>26521.00461027385</v>
-      </c>
       <c r="K5" t="n">
-        <v>26521.00461027385</v>
+        <v>26521.00461027386</v>
       </c>
       <c r="L5" t="n">
-        <v>26521.00461027385</v>
+        <v>26521.00461027386</v>
       </c>
       <c r="M5" t="n">
         <v>26521.00461027386</v>
       </c>
       <c r="N5" t="n">
-        <v>26521.00461027385</v>
+        <v>26521.00461027386</v>
       </c>
       <c r="O5" t="n">
         <v>26521.00461027386</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-144946.1667764946</v>
+        <v>-144950.3300372476</v>
       </c>
       <c r="C6" t="n">
-        <v>55373.35770686559</v>
+        <v>55369.19444611298</v>
       </c>
       <c r="D6" t="n">
-        <v>52760.48425275681</v>
+        <v>52756.32429931503</v>
       </c>
       <c r="E6" t="n">
-        <v>-144083.9386037095</v>
+        <v>-145082.7583570018</v>
       </c>
       <c r="F6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939147</v>
       </c>
       <c r="G6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="H6" t="n">
-        <v>149491.3410472071</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="I6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="J6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="K6" t="n">
-        <v>149491.3410472069</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="L6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="M6" t="n">
-        <v>83603.8580771259</v>
+        <v>82605.03832383353</v>
       </c>
       <c r="N6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="O6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
       <c r="P6" t="n">
-        <v>149491.341047207</v>
+        <v>148492.5212939146</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>479.173664786802</v>
       </c>
       <c r="H3" t="n">
-        <v>479.1736647868021</v>
+        <v>479.173664786802</v>
       </c>
       <c r="I3" t="n">
         <v>479.173664786802</v>
@@ -26798,13 +26798,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="F4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="H4" t="n">
         <v>264.3917552289733</v>
@@ -26813,25 +26813,25 @@
         <v>264.3917552289734</v>
       </c>
       <c r="J4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="K4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="L4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="M4" t="n">
         <v>264.3917552289733</v>
       </c>
       <c r="N4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="O4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="P4" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>4.134138768852409</v>
       </c>
       <c r="E3" t="n">
-        <v>267.1557339942221</v>
+        <v>267.155733994222</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>0.8357137367788041</v>
       </c>
       <c r="H2" t="n">
-        <v>8.558753306785931</v>
+        <v>8.558753306785929</v>
       </c>
       <c r="I2" t="n">
         <v>32.21885383716488</v>
@@ -31150,13 +31150,13 @@
         <v>85.38532582197224</v>
       </c>
       <c r="Q3" t="n">
-        <v>57.07782908545822</v>
+        <v>57.07782908545823</v>
       </c>
       <c r="R3" t="n">
         <v>27.76229207441406</v>
       </c>
       <c r="S3" t="n">
-        <v>8.305545841702701</v>
+        <v>8.305545841702699</v>
       </c>
       <c r="T3" t="n">
         <v>1.802313253488733</v>
@@ -31211,7 +31211,7 @@
         <v>26.50347951751689</v>
       </c>
       <c r="K4" t="n">
-        <v>43.55335839447933</v>
+        <v>43.55335839447932</v>
       </c>
       <c r="L4" t="n">
         <v>55.73330384845972</v>
@@ -31226,7 +31226,7 @@
         <v>52.9865114489331</v>
       </c>
       <c r="P4" t="n">
-        <v>45.33911424727331</v>
+        <v>45.33911424727332</v>
       </c>
       <c r="Q4" t="n">
         <v>31.39045259558288</v>
@@ -31235,7 +31235,7 @@
         <v>16.85562680900585</v>
       </c>
       <c r="S4" t="n">
-        <v>6.533003759171899</v>
+        <v>6.533003759171898</v>
       </c>
       <c r="T4" t="n">
         <v>1.601727577887737</v>
@@ -32469,7 +32469,7 @@
         <v>19.72798912360938</v>
       </c>
       <c r="I20" t="n">
-        <v>74.26469431836459</v>
+        <v>74.26469431836458</v>
       </c>
       <c r="J20" t="n">
         <v>163.4945360068295</v>
@@ -32478,19 +32478,19 @@
         <v>245.0359278879364</v>
       </c>
       <c r="L20" t="n">
-        <v>303.9887361038926</v>
+        <v>303.9887361038925</v>
       </c>
       <c r="M20" t="n">
         <v>338.246041274354</v>
       </c>
       <c r="N20" t="n">
-        <v>343.7192158475219</v>
+        <v>343.7192158475218</v>
       </c>
       <c r="O20" t="n">
-        <v>324.5643087953661</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P20" t="n">
-        <v>277.0081284961734</v>
+        <v>277.0081284961733</v>
       </c>
       <c r="Q20" t="n">
         <v>208.0215682140533</v>
@@ -32499,10 +32499,10 @@
         <v>121.0045938519154</v>
       </c>
       <c r="S20" t="n">
-        <v>43.89616034705228</v>
+        <v>43.89616034705227</v>
       </c>
       <c r="T20" t="n">
-        <v>8.432493337102414</v>
+        <v>8.432493337102413</v>
       </c>
       <c r="U20" t="n">
         <v>0.1541061032480166</v>
@@ -32545,13 +32545,13 @@
         <v>1.030675429918782</v>
       </c>
       <c r="H21" t="n">
-        <v>9.954154810005079</v>
+        <v>9.954154810005077</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4859742318528</v>
+        <v>35.48597423185279</v>
       </c>
       <c r="J21" t="n">
-        <v>97.37622559596703</v>
+        <v>97.37622559596701</v>
       </c>
       <c r="K21" t="n">
         <v>166.4314794005254</v>
@@ -32575,13 +32575,13 @@
         <v>131.5648145278782</v>
       </c>
       <c r="R21" t="n">
-        <v>63.99228678039597</v>
+        <v>63.99228678039596</v>
       </c>
       <c r="S21" t="n">
         <v>19.1443440601142</v>
       </c>
       <c r="T21" t="n">
-        <v>4.154345263576142</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U21" t="n">
         <v>0.06780759407360409</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8640836578122659</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H22" t="n">
-        <v>7.682489248549061</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I22" t="n">
-        <v>25.98535218220888</v>
+        <v>25.98535218220887</v>
       </c>
       <c r="J22" t="n">
-        <v>61.0907146073272</v>
+        <v>61.09071460732719</v>
       </c>
       <c r="K22" t="n">
         <v>100.3908104258251</v>
@@ -32651,7 +32651,7 @@
         <v>104.5069907594035</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.35522338280711</v>
+        <v>72.3552233828071</v>
       </c>
       <c r="R22" t="n">
         <v>38.85234337763151</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H23" t="n">
         <v>19.72798912360938</v>
@@ -32712,19 +32712,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K23" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L23" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M23" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N23" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O23" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P23" t="n">
         <v>277.0081284961733</v>
@@ -32800,7 +32800,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N24" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O24" t="n">
         <v>245.2239037140533</v>
@@ -32818,10 +32818,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T24" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H25" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I25" t="n">
         <v>25.98535218220887</v>
@@ -32870,7 +32870,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K25" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L25" t="n">
         <v>128.4656739987436</v>
@@ -32894,10 +32894,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S25" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T25" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U25" t="n">
         <v>0.0471318358806691</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H26" t="n">
         <v>19.72798912360938</v>
@@ -32949,19 +32949,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K26" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L26" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M26" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N26" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O26" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P26" t="n">
         <v>277.0081284961733</v>
@@ -33037,7 +33037,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N27" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O27" t="n">
         <v>245.2239037140533</v>
@@ -33055,10 +33055,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T27" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H28" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I28" t="n">
         <v>25.98535218220887</v>
@@ -33107,7 +33107,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K28" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L28" t="n">
         <v>128.4656739987436</v>
@@ -33131,10 +33131,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S28" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T28" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U28" t="n">
         <v>0.0471318358806691</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H29" t="n">
         <v>19.72798912360938</v>
@@ -33186,19 +33186,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K29" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L29" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M29" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N29" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O29" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P29" t="n">
         <v>277.0081284961733</v>
@@ -33274,7 +33274,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N30" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O30" t="n">
         <v>245.2239037140533</v>
@@ -33292,10 +33292,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T30" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H31" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I31" t="n">
         <v>25.98535218220887</v>
@@ -33344,7 +33344,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K31" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L31" t="n">
         <v>128.4656739987436</v>
@@ -33368,10 +33368,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S31" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T31" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U31" t="n">
         <v>0.0471318358806691</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H32" t="n">
         <v>19.72798912360938</v>
@@ -33423,19 +33423,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K32" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L32" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M32" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N32" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O32" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P32" t="n">
         <v>277.0081284961733</v>
@@ -33511,7 +33511,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N33" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O33" t="n">
         <v>245.2239037140533</v>
@@ -33529,10 +33529,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T33" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H34" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I34" t="n">
         <v>25.98535218220887</v>
@@ -33581,7 +33581,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K34" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L34" t="n">
         <v>128.4656739987436</v>
@@ -33605,10 +33605,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S34" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T34" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U34" t="n">
         <v>0.0471318358806691</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H35" t="n">
         <v>19.72798912360938</v>
@@ -33660,19 +33660,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K35" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L35" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M35" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N35" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O35" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P35" t="n">
         <v>277.0081284961733</v>
@@ -33748,7 +33748,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N36" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O36" t="n">
         <v>245.2239037140533</v>
@@ -33766,10 +33766,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T36" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H37" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I37" t="n">
         <v>25.98535218220887</v>
@@ -33818,7 +33818,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K37" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L37" t="n">
         <v>128.4656739987436</v>
@@ -33842,10 +33842,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S37" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T37" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U37" t="n">
         <v>0.0471318358806691</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H38" t="n">
         <v>19.72798912360938</v>
@@ -33897,19 +33897,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K38" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L38" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M38" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N38" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O38" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P38" t="n">
         <v>277.0081284961733</v>
@@ -33985,7 +33985,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N39" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O39" t="n">
         <v>245.2239037140533</v>
@@ -34003,10 +34003,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T39" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H40" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I40" t="n">
         <v>25.98535218220887</v>
@@ -34055,7 +34055,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K40" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L40" t="n">
         <v>128.4656739987436</v>
@@ -34079,10 +34079,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S40" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T40" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U40" t="n">
         <v>0.0471318358806691</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H41" t="n">
         <v>19.72798912360938</v>
@@ -34134,19 +34134,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K41" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L41" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M41" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N41" t="n">
         <v>343.7192158475218</v>
       </c>
       <c r="O41" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P41" t="n">
         <v>277.0081284961733</v>
@@ -34222,7 +34222,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N42" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O42" t="n">
         <v>245.2239037140533</v>
@@ -34240,10 +34240,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T42" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H43" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I43" t="n">
         <v>25.98535218220887</v>
@@ -34292,7 +34292,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K43" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L43" t="n">
         <v>128.4656739987436</v>
@@ -34316,10 +34316,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S43" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T43" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U43" t="n">
         <v>0.0471318358806691</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.926326290600207</v>
+        <v>1.926326290600208</v>
       </c>
       <c r="H44" t="n">
         <v>19.72798912360938</v>
@@ -34371,19 +34371,19 @@
         <v>163.4945360068295</v>
       </c>
       <c r="K44" t="n">
-        <v>245.0359278879363</v>
+        <v>245.0359278879364</v>
       </c>
       <c r="L44" t="n">
         <v>303.9887361038925</v>
       </c>
       <c r="M44" t="n">
-        <v>338.2460412743539</v>
+        <v>338.246041274354</v>
       </c>
       <c r="N44" t="n">
-        <v>343.7192158475217</v>
+        <v>343.7192158475218</v>
       </c>
       <c r="O44" t="n">
-        <v>324.5643087953659</v>
+        <v>324.564308795366</v>
       </c>
       <c r="P44" t="n">
         <v>277.0081284961733</v>
@@ -34459,7 +34459,7 @@
         <v>261.1496473088071</v>
       </c>
       <c r="N45" t="n">
-        <v>268.0615013980431</v>
+        <v>268.0615013980432</v>
       </c>
       <c r="O45" t="n">
         <v>245.2239037140533</v>
@@ -34477,10 +34477,10 @@
         <v>19.1443440601142</v>
       </c>
       <c r="T45" t="n">
-        <v>4.15434526357614</v>
+        <v>4.154345263576141</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06780759407360408</v>
+        <v>0.06780759407360409</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8640836578122657</v>
+        <v>0.8640836578122658</v>
       </c>
       <c r="H46" t="n">
-        <v>7.682489248549059</v>
+        <v>7.68248924854906</v>
       </c>
       <c r="I46" t="n">
         <v>25.98535218220887</v>
@@ -34529,7 +34529,7 @@
         <v>61.09071460732719</v>
       </c>
       <c r="K46" t="n">
-        <v>100.390810425825</v>
+        <v>100.3908104258251</v>
       </c>
       <c r="L46" t="n">
         <v>128.4656739987436</v>
@@ -34553,10 +34553,10 @@
         <v>38.85234337763151</v>
       </c>
       <c r="S46" t="n">
-        <v>15.05862156387375</v>
+        <v>15.05862156387376</v>
       </c>
       <c r="T46" t="n">
-        <v>3.691993810652407</v>
+        <v>3.691993810652408</v>
       </c>
       <c r="U46" t="n">
         <v>0.0471318358806691</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.9317682626337</v>
+        <v>182.0273083376445</v>
       </c>
       <c r="K12" t="n">
-        <v>203.6156700327232</v>
+        <v>76.83454406719208</v>
       </c>
       <c r="L12" t="n">
         <v>133.7273161173331</v>
@@ -35512,7 +35512,7 @@
         <v>40.57666137196422</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31441410947988</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>31.01622713516814</v>
       </c>
       <c r="K13" t="n">
-        <v>16.53219261497708</v>
+        <v>180.1204522187589</v>
       </c>
       <c r="L13" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="M13" t="n">
-        <v>115.3650647976444</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="N13" t="n">
-        <v>264.3917552289735</v>
+        <v>49.23276166081556</v>
       </c>
       <c r="O13" t="n">
-        <v>264.3917552289735</v>
+        <v>32.13754738507599</v>
       </c>
       <c r="P13" t="n">
-        <v>14.98378812745754</v>
+        <v>225.5940268973616</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.81198739295961</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>168.7625252594952</v>
       </c>
       <c r="N15" t="n">
-        <v>182.6893885438766</v>
+        <v>237.9295182150783</v>
       </c>
       <c r="O15" t="n">
-        <v>152.5363448251645</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="P15" t="n">
         <v>109.730437232457</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3577873374954</v>
+        <v>40.57666137196422</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31441410947988</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>183.052468112635</v>
       </c>
       <c r="L16" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="M16" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="N16" t="n">
         <v>49.23276166081556</v>
       </c>
       <c r="O16" t="n">
-        <v>60.22175862636811</v>
+        <v>195.0200100033123</v>
       </c>
       <c r="P16" t="n">
-        <v>225.5940268973616</v>
+        <v>14.98378812745754</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>75.81198739295961</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>182.027308337645</v>
+        <v>14.93176826263367</v>
       </c>
       <c r="K18" t="n">
         <v>76.83454406719206</v>
@@ -35983,7 +35983,7 @@
         <v>109.7304372324569</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.57666137196419</v>
+        <v>207.6722014469749</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,13 +36050,13 @@
         <v>40.79063441593874</v>
       </c>
       <c r="M19" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N19" t="n">
-        <v>68.66388587124487</v>
+        <v>68.66388587124463</v>
       </c>
       <c r="O19" t="n">
-        <v>264.3917552289735</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="P19" t="n">
         <v>225.5940268973616</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.81469806448345</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K20" t="n">
         <v>101.977524708699</v>
       </c>
       <c r="L20" t="n">
-        <v>150.7405663734009</v>
+        <v>150.7405663734008</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5209896766268</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N20" t="n">
-        <v>194.6007245097378</v>
+        <v>194.6007245097377</v>
       </c>
       <c r="O20" t="n">
-        <v>175.0004713712697</v>
+        <v>175.0004713712696</v>
       </c>
       <c r="P20" t="n">
-        <v>126.7066812552482</v>
+        <v>126.7066812552481</v>
       </c>
       <c r="Q20" t="n">
         <v>63.52286979566117</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>141.7128942281642</v>
+        <v>14.93176826263367</v>
       </c>
       <c r="K21" t="n">
         <v>76.83454406719206</v>
@@ -36208,22 +36208,22 @@
         <v>133.7273161173331</v>
       </c>
       <c r="M21" t="n">
-        <v>168.7625252594952</v>
+        <v>168.7625252594951</v>
       </c>
       <c r="N21" t="n">
         <v>182.6893885438765</v>
       </c>
       <c r="O21" t="n">
-        <v>152.5363448251645</v>
+        <v>164.9705669036586</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7304372324569</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.57666137196422</v>
+        <v>40.57666137196419</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31441410947987</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.01622713516813</v>
+        <v>31.01622713516812</v>
       </c>
       <c r="K22" t="n">
-        <v>167.1107181547152</v>
+        <v>183.052468112635</v>
       </c>
       <c r="L22" t="n">
         <v>264.3917552289733</v>
       </c>
       <c r="M22" t="n">
-        <v>45.14728144911946</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N22" t="n">
-        <v>49.23276166081556</v>
+        <v>256.9109845368433</v>
       </c>
       <c r="O22" t="n">
-        <v>264.3917552289733</v>
+        <v>32.13754738507596</v>
       </c>
       <c r="P22" t="n">
-        <v>225.5940268973616</v>
+        <v>14.98378812745752</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K23" t="n">
         <v>101.977524708699</v>
@@ -36366,7 +36366,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N23" t="n">
         <v>194.6007245097377</v>
@@ -36378,7 +36378,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>14.93176826263367</v>
       </c>
       <c r="K24" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L24" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M24" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N24" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O24" t="n">
-        <v>264.3917552289734</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P24" t="n">
-        <v>124.6561527941791</v>
+        <v>109.7304372324569</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.57666137196419</v>
+        <v>207.6722014469752</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31441410947986</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.01622713516812</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>183.052468112635</v>
@@ -36524,19 +36524,19 @@
         <v>264.3917552289734</v>
       </c>
       <c r="M25" t="n">
-        <v>261.4597393350971</v>
+        <v>212.1152242790523</v>
       </c>
       <c r="N25" t="n">
-        <v>49.23276166081553</v>
+        <v>264.3917552289734</v>
       </c>
       <c r="O25" t="n">
-        <v>32.13754738507595</v>
+        <v>32.13754738507596</v>
       </c>
       <c r="P25" t="n">
-        <v>225.5940268973616</v>
+        <v>14.98378812745752</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>75.81198739295958</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K26" t="n">
         <v>101.977524708699</v>
@@ -36603,7 +36603,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M26" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N26" t="n">
         <v>194.6007245097377</v>
@@ -36615,7 +36615,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q26" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>182.027308337644</v>
+        <v>182.0273083376443</v>
       </c>
       <c r="K27" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L27" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M27" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N27" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O27" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P27" t="n">
         <v>109.7304372324569</v>
@@ -36758,16 +36758,16 @@
         <v>183.052468112635</v>
       </c>
       <c r="L28" t="n">
-        <v>40.79063441593871</v>
+        <v>40.79063441593874</v>
       </c>
       <c r="M28" t="n">
-        <v>176.9946649112745</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N28" t="n">
-        <v>49.23276166081553</v>
+        <v>194.0898791870144</v>
       </c>
       <c r="O28" t="n">
-        <v>264.3917552289732</v>
+        <v>32.13754738507596</v>
       </c>
       <c r="P28" t="n">
         <v>225.5940268973616</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K29" t="n">
         <v>101.977524708699</v>
@@ -36840,7 +36840,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N29" t="n">
         <v>194.6007245097377</v>
@@ -36852,7 +36852,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q29" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>14.93176826263367</v>
+        <v>182.0273083376443</v>
       </c>
       <c r="K30" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L30" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M30" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N30" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O30" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5115631979874</v>
+        <v>109.7304372324569</v>
       </c>
       <c r="Q30" t="n">
         <v>40.57666137196419</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31441410947986</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,22 +36995,22 @@
         <v>183.052468112635</v>
       </c>
       <c r="L31" t="n">
-        <v>40.79063441593871</v>
+        <v>40.79063441593874</v>
       </c>
       <c r="M31" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N31" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="O31" t="n">
-        <v>32.13754738507595</v>
+        <v>68.66388587124463</v>
       </c>
       <c r="P31" t="n">
-        <v>186.3083779905706</v>
+        <v>225.5940268973616</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.81198739295958</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K32" t="n">
         <v>101.977524708699</v>
@@ -37077,7 +37077,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M32" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N32" t="n">
         <v>194.6007245097377</v>
@@ -37089,7 +37089,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q32" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>182.027308337644</v>
+        <v>14.93176826263367</v>
       </c>
       <c r="K33" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L33" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M33" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N33" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O33" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P33" t="n">
         <v>109.7304372324569</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.57666137196419</v>
+        <v>207.6722014469749</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>31.01622713516812</v>
       </c>
       <c r="K34" t="n">
         <v>183.052468112635</v>
       </c>
       <c r="L34" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="M34" t="n">
-        <v>216.6639790773053</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N34" t="n">
-        <v>49.23276166081553</v>
+        <v>256.9109845368433</v>
       </c>
       <c r="O34" t="n">
-        <v>32.13754738507595</v>
+        <v>32.13754738507596</v>
       </c>
       <c r="P34" t="n">
-        <v>225.5940268973616</v>
+        <v>14.98378812745752</v>
       </c>
       <c r="Q34" t="n">
-        <v>75.81198739295958</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K35" t="n">
         <v>101.977524708699</v>
@@ -37314,7 +37314,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N35" t="n">
         <v>194.6007245097377</v>
@@ -37326,7 +37326,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q35" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>182.0273083376445</v>
+        <v>182.0273083376443</v>
       </c>
       <c r="K36" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L36" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M36" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N36" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O36" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P36" t="n">
         <v>109.7304372324569</v>
@@ -37466,7 +37466,7 @@
         <v>31.01622713516812</v>
       </c>
       <c r="K37" t="n">
-        <v>16.53219261497705</v>
+        <v>183.052468112635</v>
       </c>
       <c r="L37" t="n">
         <v>264.3917552289733</v>
@@ -37475,16 +37475,16 @@
         <v>264.3917552289733</v>
       </c>
       <c r="N37" t="n">
-        <v>264.3917552289733</v>
+        <v>49.23276166081553</v>
       </c>
       <c r="O37" t="n">
-        <v>32.13754738507595</v>
+        <v>164.0037828681442</v>
       </c>
       <c r="P37" t="n">
-        <v>174.0232929329856</v>
+        <v>14.98378812745752</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>75.81198739295958</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K38" t="n">
         <v>101.977524708699</v>
@@ -37551,7 +37551,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N38" t="n">
         <v>194.6007245097377</v>
@@ -37563,7 +37563,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>14.93176826263367</v>
       </c>
       <c r="K39" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L39" t="n">
-        <v>164.8792121133854</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M39" t="n">
-        <v>264.3917552289732</v>
+        <v>168.7625252594951</v>
       </c>
       <c r="N39" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O39" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P39" t="n">
         <v>109.7304372324569</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.57666137196419</v>
+        <v>207.6722014469749</v>
       </c>
       <c r="R39" t="n">
-        <v>40.31441410947986</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.01622713516812</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>183.052468112635</v>
       </c>
       <c r="L40" t="n">
-        <v>40.79063441593871</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="M40" t="n">
-        <v>264.3917552289732</v>
+        <v>77.31697290210738</v>
       </c>
       <c r="N40" t="n">
-        <v>194.0898791870142</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="O40" t="n">
-        <v>32.13754738507595</v>
+        <v>32.13754738507596</v>
       </c>
       <c r="P40" t="n">
         <v>225.5940268973616</v>
       </c>
       <c r="Q40" t="n">
-        <v>75.81198739295958</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K41" t="n">
         <v>101.977524708699</v>
@@ -37788,7 +37788,7 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N41" t="n">
         <v>194.6007245097377</v>
@@ -37800,7 +37800,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q41" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>141.7128942281643</v>
+        <v>14.93176826263367</v>
       </c>
       <c r="K42" t="n">
-        <v>76.83454406719203</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L42" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M42" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N42" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O42" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P42" t="n">
         <v>109.7304372324569</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.57666137196419</v>
+        <v>207.6722014469749</v>
       </c>
       <c r="R42" t="n">
-        <v>40.31441410947986</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>183.052468112635</v>
+        <v>16.53219261497706</v>
       </c>
       <c r="L43" t="n">
-        <v>40.79063441593871</v>
+        <v>40.79063441593874</v>
       </c>
       <c r="M43" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N43" t="n">
-        <v>68.66388587124452</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="O43" t="n">
-        <v>264.3917552289732</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="P43" t="n">
-        <v>225.5940268973616</v>
+        <v>196.386433037291</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.81469806448339</v>
+        <v>45.81469806448342</v>
       </c>
       <c r="K44" t="n">
         <v>101.977524708699</v>
@@ -38025,10 +38025,10 @@
         <v>150.7405663734008</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5209896766266</v>
+        <v>188.5209896766267</v>
       </c>
       <c r="N44" t="n">
-        <v>194.6007245097376</v>
+        <v>194.6007245097377</v>
       </c>
       <c r="O44" t="n">
         <v>175.0004713712696</v>
@@ -38037,7 +38037,7 @@
         <v>126.7066812552481</v>
       </c>
       <c r="Q44" t="n">
-        <v>63.52286979566114</v>
+        <v>63.52286979566117</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>14.93176826263367</v>
+        <v>182.0273083376443</v>
       </c>
       <c r="K45" t="n">
-        <v>203.6156700327227</v>
+        <v>76.83454406719206</v>
       </c>
       <c r="L45" t="n">
-        <v>133.727316117333</v>
+        <v>133.7273161173331</v>
       </c>
       <c r="M45" t="n">
         <v>168.7625252594951</v>
       </c>
       <c r="N45" t="n">
-        <v>182.6893885438764</v>
+        <v>182.6893885438765</v>
       </c>
       <c r="O45" t="n">
-        <v>152.5363448251643</v>
+        <v>152.5363448251644</v>
       </c>
       <c r="P45" t="n">
         <v>109.7304372324569</v>
@@ -38119,7 +38119,7 @@
         <v>40.57666137196419</v>
       </c>
       <c r="R45" t="n">
-        <v>40.31441410947986</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>183.052468112635</v>
+        <v>16.53219261497706</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3917552289732</v>
+        <v>146.3812919328126</v>
       </c>
       <c r="M46" t="n">
-        <v>45.14728144911943</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="N46" t="n">
-        <v>49.23276166081553</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="O46" t="n">
-        <v>203.6542450132621</v>
+        <v>264.3917552289733</v>
       </c>
       <c r="P46" t="n">
-        <v>225.5940268973616</v>
+        <v>14.98378812745752</v>
       </c>
       <c r="Q46" t="n">
         <v>75.81198739295958</v>
